--- a/scripts/output/202002/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202002/全家/全家整体收益估算.xlsx
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,7 +109,14 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -118,14 +125,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6476</v>
+        <v>1.5141</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0257</v>
+        <v>-0.0824</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-6.73</v>
+        <v>-381.18</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4333</v>
+        <v>1.3366</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.027</v>
+        <v>-0.06859999999999999</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-5.3</v>
+        <v>-306.6</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0275</v>
+        <v>-0.0742</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-2.94</v>
+        <v>-302.54</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4155</v>
+        <v>1.426</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.054</v>
+        <v>-0.047</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-182.62</v>
+        <v>-158.89</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9489</v>
+        <v>1.7902</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0355</v>
+        <v>-0.0815</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-0.27</v>
+        <v>-216.64</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2591</v>
+        <v>2.0797</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0346</v>
+        <v>-0.0799</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-1.36</v>
+        <v>-204.92</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0105</v>
+        <v>0.9532</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0245</v>
+        <v>-0.0569</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-0.21</v>
+        <v>-61.38</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.203</v>
+        <v>1.1295</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.023</v>
+        <v>-0.0614</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-0.22</v>
+        <v>-40.69</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.9862</v>
+        <v>0.9137</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0261</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.83</v>
+        <v>-0.0721</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-39.08</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0.8478</v>
+        <v>0.8369</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0113</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0.27</v>
+        <v>-0.0123</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-5.53</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3125</v>
+        <v>1.3134</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0249</v>
+        <v>-0.0242</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.08</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.3541</v>
+        <v>1.2635</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.027</v>
+        <v>-0.06859999999999999</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-0.15</v>
+        <v>-6</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1381,787 +1381,787 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <v>10311.86</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="12" t="n">
         <v>-1688.25</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.6163</v>
       </c>
-      <c r="H14" s="14" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="J14" s="15" t="n">
-        <v>-0.0327</v>
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0.5648</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>-0.0835</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-6.69</v>
-      </c>
-      <c r="L14" s="14" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M14" s="14" t="inlineStr">
+        <v>-861.6900000000001</v>
+      </c>
+      <c r="L14" s="13" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M14" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="14" t="inlineStr">
+      <c r="N14" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O14" s="14" t="inlineStr">
+      <c r="O14" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P14" s="14" t="inlineStr">
+      <c r="P14" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q14" s="14" t="inlineStr">
+      <c r="Q14" s="13" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>华宝油气</t>
+        </is>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <v>35500</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>13032.05</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>252.05</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0.3671</v>
+      </c>
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>-0.0577</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-287.55</v>
+      </c>
+      <c r="L15" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="N15" s="19" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="O15" s="19" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="P15" s="19" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="Q15" s="19" t="inlineStr">
+        <is>
+          <t>华宝证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>510050</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>2.337</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D16" s="18" t="n">
         <v>2700</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E16" s="18" t="n">
         <v>7897.5</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F16" s="18" t="n">
         <v>1587.6</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G16" s="17" t="n">
         <v>2.925</v>
       </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="n">
-        <v>2.925</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>-0.0269</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M15" s="20" t="inlineStr">
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>2.723</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-545.4</v>
+      </c>
+      <c r="L16" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>510300</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>3.447</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D17" s="18" t="n">
         <v>9100</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E17" s="18" t="n">
         <v>36384.53</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F17" s="18" t="n">
         <v>5016.83</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G17" s="17" t="n">
         <v>3.9983</v>
       </c>
-      <c r="H16" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="n">
-        <v>3.996</v>
-      </c>
-      <c r="J16" s="21" t="n">
-        <v>-0.0299</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-20.93</v>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M16" s="20" t="inlineStr">
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>-0.0761</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-2787.33</v>
+      </c>
+      <c r="L17" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="20" t="inlineStr">
+      <c r="N17" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O16" s="20" t="inlineStr">
+      <c r="O17" s="19" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P17" s="19" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q16" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="Q17" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>510500</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>5.601</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D18" s="18" t="n">
         <v>38800</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E18" s="18" t="n">
         <v>225998.36</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F18" s="18" t="n">
         <v>8679.559999999999</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G18" s="17" t="n">
         <v>5.8247</v>
       </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>5.811</v>
-      </c>
-      <c r="J17" s="21" t="n">
-        <v>-0.0373</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-531.5599999999999</v>
-      </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M17" s="20" t="inlineStr">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>5.355</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>-0.0785</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-18224.36</v>
+      </c>
+      <c r="L18" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="20" t="inlineStr">
+      <c r="N18" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O18" s="19" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="P18" s="19" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="Q18" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>512580</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.877</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>33800</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E19" s="18" t="n">
         <v>27908.66</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F19" s="18" t="n">
         <v>-1733.94</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>0.8257</v>
       </c>
-      <c r="H18" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>-0.0386</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-158.86</v>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M18" s="20" t="inlineStr">
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>-0.078</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-2322.06</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="20" t="inlineStr">
+      <c r="N19" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="20" t="inlineStr">
+      <c r="O19" s="19" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr">
+      <c r="P19" s="19" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q18" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="Q19" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>512880</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.783</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D20" s="18" t="n">
         <v>32700</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E20" s="18" t="n">
         <v>32379.54</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F20" s="18" t="n">
         <v>6775.44</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G20" s="17" t="n">
         <v>0.9902</v>
       </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>-0.0396</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>124.26</v>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M19" s="20" t="inlineStr">
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>-0.09959999999999999</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-3113.04</v>
+      </c>
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="N20" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="O20" s="19" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P20" s="19" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q19" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="Q20" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>512980</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.869</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>34100</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E21" s="18" t="n">
         <v>29943.21</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F21" s="18" t="n">
         <v>310.31</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G21" s="17" t="n">
         <v>0.8781</v>
       </c>
-      <c r="H20" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="J20" s="21" t="n">
-        <v>-0.0266</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-3.41</v>
-      </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M20" s="20" t="inlineStr">
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>-0.07969999999999999</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-2390.41</v>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N21" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O21" s="19" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P21" s="19" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q20" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>518880</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>2.856</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="E22" s="18" t="n">
         <v>15450.3</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F22" s="18" t="n">
         <v>2598.3</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G22" s="17" t="n">
         <v>3.4334</v>
       </c>
-      <c r="H21" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I21" s="18" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-15.3</v>
-      </c>
-      <c r="L21" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M21" s="20" t="inlineStr">
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>3.519</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="K22" s="21" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="N22" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O22" s="19" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P21" s="20" t="inlineStr">
+      <c r="P22" s="19" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="Q21" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="Q22" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B23" s="16" t="n">
         <v>159915</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C23" s="17" t="n">
         <v>1.399</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D23" s="18" t="n">
         <v>9200</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E23" s="18" t="n">
         <v>17057.72</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F23" s="18" t="n">
         <v>4186.92</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G23" s="17" t="n">
         <v>1.8541</v>
       </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>-0.0339</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-10.12</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:04</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+      <c r="H23" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>-0.0594</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-1022.12</v>
+      </c>
+      <c r="L23" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N23" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O23" s="19" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P23" s="19" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="Q23" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B24" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C24" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D24" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E24" s="18" t="n">
         <v>20854.08</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F24" s="18" t="n">
         <v>2551.68</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G24" s="17" t="n">
         <v>1.4482</v>
       </c>
-      <c r="H23" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I23" s="18" t="n">
-        <v>1.448</v>
-      </c>
-      <c r="J23" s="21" t="n">
-        <v>-0.0203</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-2.88</v>
-      </c>
-      <c r="L23" s="20" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:04</t>
-        </is>
-      </c>
-      <c r="M23" s="20" t="inlineStr">
+      <c r="H24" s="19" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I24" s="17" t="n">
+        <v>1.403</v>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>-0.0311</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-650.88</v>
+      </c>
+      <c r="L24" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M24" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N23" s="20" t="inlineStr">
+      <c r="N24" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O23" s="20" t="inlineStr">
+      <c r="O24" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P23" s="20" t="inlineStr">
+      <c r="P24" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q23" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B24" s="23" t="n">
-        <v>478</v>
-      </c>
-      <c r="C24" s="24" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D24" s="25" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E24" s="25" t="n">
-        <v>8680.49</v>
-      </c>
-      <c r="F24" s="25" t="n">
-        <v>676.4299999999999</v>
-      </c>
-      <c r="G24" s="24" t="n">
-        <v>2.0879</v>
-      </c>
-      <c r="H24" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I24" s="24" t="n">
-        <v>2.0964</v>
-      </c>
-      <c r="J24" s="27" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="L24" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M24" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N24" s="26" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O24" s="26" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P24" s="26" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q24" s="26" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
+      <c r="Q24" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5991.67</v>
+        <v>8680.49</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>655.26</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.6163</v>
+        <v>2.0879</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.6159</v>
+        <v>1.9255</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0327</v>
+        <v>-0.07779999999999999</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-3.89</v>
+        <v>-675.1799999999999</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2189,17 +2189,17 @@
       </c>
       <c r="N25" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O25" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P25" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q25" s="26" t="inlineStr">
@@ -2211,26 +2211,26 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4996.86</v>
+        <v>5991.67</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>327.78</v>
+        <v>655.26</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>1.0107</v>
+        <v>0.6163</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>1.0105</v>
+        <v>0.5648</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0245</v>
+        <v>-0.0835</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-0.99</v>
+        <v>-500.68</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2263,12 +2263,12 @@
       </c>
       <c r="O26" s="26" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P26" s="26" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q26" s="26" t="inlineStr">
@@ -2280,26 +2280,26 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4398.21</v>
+        <v>4996.86</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>396.28</v>
+        <v>327.78</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.596</v>
+        <v>1.0107</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5962</v>
+        <v>0.9532</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>1.48</v>
+        <v>-0.0569</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-284.28</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="N27" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O27" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P27" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q27" s="26" t="inlineStr">
@@ -2349,26 +2349,26 @@
     <row r="28">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B28" s="23" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C28" s="24" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D28" s="25" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4145.13</v>
+        <v>4398.21</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>143.3</v>
+        <v>396.28</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.131</v>
+        <v>0.596</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1312</v>
+        <v>0.5496</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0257</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>0.73</v>
+        <v>-0.07779999999999999</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-342.41</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="N28" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O28" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P28" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q28" s="26" t="inlineStr">
@@ -2418,26 +2418,26 @@
     <row r="29">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B29" s="23" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C29" s="24" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D29" s="25" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3971.72</v>
+        <v>4145.13</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>636.62</v>
+        <v>143.3</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.8728</v>
+        <v>1.131</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8718</v>
+        <v>1.0378</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0263</v>
+        <v>-0.0824</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-4.55</v>
+        <v>-341.58</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2465,17 +2465,17 @@
       </c>
       <c r="N29" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O29" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P29" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q29" s="26" t="inlineStr">
@@ -2487,26 +2487,26 @@
     <row r="30">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="23" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C30" s="24" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D30" s="25" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>792.6900000000001</v>
+        <v>3971.72</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>125.68</v>
+        <v>636.62</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.9786</v>
+        <v>0.8728</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.9781</v>
+        <v>0.8125</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0315</v>
+        <v>-0.06909999999999999</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-0.2</v>
+        <v>-274.4</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="N30" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O30" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P30" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q30" s="26" t="inlineStr">
@@ -2556,26 +2556,26 @@
     <row r="31">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="23" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>785.04</v>
+        <v>792.6900000000001</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>118.03</v>
+        <v>125.68</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.0662</v>
+        <v>1.9786</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0664</v>
+        <v>1.8711</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0315</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>0.15</v>
+        <v>-0.0543</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-43.07</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2625,26 +2625,26 @@
     <row r="32">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="23" t="n">
-        <v>1180</v>
+        <v>3765</v>
       </c>
       <c r="C32" s="24" t="n">
-        <v>0.8242</v>
+        <v>0.9059</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>809.28</v>
+        <v>736.3</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>727.62</v>
+        <v>785.04</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>60.62</v>
+        <v>118.03</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.8991</v>
+        <v>1.0662</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.8987000000000001</v>
+        <v>1.0083</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0181</v>
+        <v>-0.0543</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-0.32</v>
+        <v>-42.63</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2672,17 +2672,17 @@
       </c>
       <c r="N32" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O32" s="26" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P32" s="26" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q32" s="26" t="inlineStr">
@@ -2694,26 +2694,26 @@
     <row r="33">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>502010</v>
+        <v>1180</v>
       </c>
       <c r="C33" s="24" t="n">
-        <v>0.9853</v>
+        <v>0.8242</v>
       </c>
       <c r="D33" s="25" t="n">
-        <v>473.85</v>
+        <v>809.28</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>504.56</v>
+        <v>727.62</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>37.67</v>
+        <v>60.62</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.0648</v>
+        <v>0.8991</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.0626</v>
+        <v>0.8745000000000001</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0411</v>
+        <v>-0.0274</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>-1.04</v>
+        <v>-19.91</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="O33" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P33" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q33" s="26" t="inlineStr">
@@ -2763,64 +2763,64 @@
     <row r="34">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C34" s="24" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D34" s="25" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>1945.62</v>
+        <v>504.56</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>-55.12</v>
+        <v>37.67</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.3671</v>
+        <v>1.0648</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>0.381</v>
+        <v>0.9637</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>73.67</v>
+        <v>-0.0949</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-47.91</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:04</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N34" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O34" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P34" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q34" s="26" t="inlineStr">
@@ -2832,26 +2832,26 @@
     <row r="35">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C35" s="24" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D35" s="25" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>820.21</v>
+        <v>1945.62</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>153.2</v>
+        <v>-55.12</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.422</v>
+        <v>0.3671</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
@@ -2859,37 +2859,37 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.39</v>
+        <v>0.359</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>-0.0225</v>
+        <v>-0.0577</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>-18.46</v>
+        <v>-42.93</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2020-02-01 05:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N35" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O35" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P35" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q35" s="26" t="inlineStr">
@@ -2901,44 +2901,44 @@
     <row r="36">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C36" s="24" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D36" s="25" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>707.0599999999999</v>
+        <v>820.21</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>40.08</v>
+        <v>153.2</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.5382</v>
+        <v>1.422</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.4542</v>
+        <v>1.3895</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0546</v>
+        <v>-0.0229</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-38.61</v>
+        <v>-18.75</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-01 05:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2948,17 +2948,17 @@
       </c>
       <c r="N36" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O36" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P36" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q36" s="26" t="inlineStr">
@@ -2970,64 +2970,64 @@
     <row r="37">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B37" s="23" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C37" s="24" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D37" s="25" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>738.99</v>
+        <v>707.0599999999999</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>72</v>
+        <v>40.08</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.208</v>
+        <v>1.5382</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>0</v>
+        <v>1.4638</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0</v>
+        <v>-0.0484</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-34.2</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-03 10:29</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N37" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O37" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P37" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q37" s="26" t="inlineStr">
@@ -3039,95 +3039,95 @@
     <row r="38">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B38" s="23" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C38" s="24" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2185.47</v>
+        <v>738.99</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>185.48</v>
+        <v>72</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>2.0879</v>
+        <v>1.208</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>2.0964</v>
+        <v>0</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>8.9</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N38" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O38" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P38" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q38" s="26" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B39" s="23" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C39" s="24" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>2065.09</v>
+        <v>2185.47</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>65</v>
+        <v>185.48</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.131</v>
+        <v>2.0879</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.1312</v>
+        <v>1.9255</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0257</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0.37</v>
+        <v>-0.07779999999999999</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-169.99</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="N39" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O39" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P39" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q39" s="26" t="inlineStr">
@@ -3177,26 +3177,26 @@
     <row r="40">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B40" s="23" t="n">
-        <v>1052</v>
+        <v>100032</v>
       </c>
       <c r="C40" s="24" t="n">
-        <v>0.5517</v>
+        <v>1.0954</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>1812.7</v>
+        <v>1825.9</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1080.37</v>
+        <v>2065.09</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>80.3</v>
+        <v>65</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.596</v>
+        <v>1.131</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5962</v>
+        <v>1.0378</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0.36</v>
+        <v>-0.0824</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-170.17</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="N40" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O40" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P40" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q40" s="26" t="inlineStr">
@@ -3246,26 +3246,26 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1070.95</v>
+        <v>1080.37</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>70.92</v>
+        <v>80.3</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.8728</v>
+        <v>0.596</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.8718</v>
+        <v>0.5496</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0263</v>
+        <v>-0.07779999999999999</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-1.23</v>
+        <v>-84.11</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3293,17 +3293,17 @@
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,26 +3315,26 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>1051</v>
+        <v>4752</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>1059.17</v>
+        <v>1227.03</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1061.29</v>
+        <v>1070.95</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>61.33</v>
+        <v>70.92</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.002</v>
+        <v>0.8728</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.0023</v>
+        <v>0.8125</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0269</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>0.32</v>
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-73.98999999999999</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,64 +3384,64 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.1113</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>1059.17</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1279.54</v>
+        <v>1061.29</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>279.57</v>
+        <v>61.33</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.422</v>
+        <v>1.002</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.39</v>
+        <v>0.9358</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0225</v>
+        <v>-0.066</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-28.79</v>
+        <v>-70.12</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2020-02-01 05:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3453,44 +3453,44 @@
     <row r="44">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B44" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C44" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D44" s="25" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1059.85</v>
+        <v>1279.54</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>59.88</v>
+        <v>279.57</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5382</v>
+        <v>1.422</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.4542</v>
+        <v>1.3895</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0546</v>
+        <v>-0.0229</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-57.88</v>
+        <v>-29.24</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-01 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="N44" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O44" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P44" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q44" s="26" t="inlineStr">
@@ -3522,26 +3522,26 @@
     <row r="45">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="23" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C45" s="24" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D45" s="25" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>2333.45</v>
+        <v>1059.85</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>333.51</v>
+        <v>59.88</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.272</v>
+        <v>1.5382</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
@@ -3549,37 +3549,37 @@
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>1.2723</v>
+        <v>1.4638</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>0.55</v>
+        <v>-0.0484</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-51.26</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:30</t>
+          <t>2020-02-03 10:29</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N45" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O45" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P45" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q45" s="26" t="inlineStr">
@@ -3591,44 +3591,44 @@
     <row r="46">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="23" t="n">
-        <v>162411</v>
+        <v>216</v>
       </c>
       <c r="C46" s="24" t="n">
-        <v>0.4204</v>
+        <v>1.0902</v>
       </c>
       <c r="D46" s="25" t="n">
-        <v>4757.9</v>
+        <v>1834.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1746.63</v>
+        <v>2333.45</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>-253.6</v>
+        <v>333.51</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>0.3671</v>
+        <v>1.272</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>0.381</v>
+        <v>1.3045</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>66.13</v>
+        <v>0.0256</v>
+      </c>
+      <c r="K46" s="21" t="n">
+        <v>59.62</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:04</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3643,12 +3643,12 @@
       </c>
       <c r="O46" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P46" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q46" s="26" t="inlineStr">
@@ -3660,26 +3660,26 @@
     <row r="47">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B47" s="23" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C47" s="24" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D47" s="25" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1152.38</v>
+        <v>1746.63</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>152.35</v>
+        <v>-253.6</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.208</v>
+        <v>0.3671</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
@@ -3687,37 +3687,37 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>0</v>
+        <v>-0.0577</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-38.54</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N47" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O47" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P47" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q47" s="26" t="inlineStr">
@@ -3729,164 +3729,164 @@
     <row r="48">
       <c r="A48" s="22" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B48" s="23" t="n">
+        <v>614</v>
+      </c>
+      <c r="C48" s="24" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D48" s="25" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E48" s="25" t="n">
+        <v>1152.38</v>
+      </c>
+      <c r="F48" s="25" t="n">
+        <v>152.35</v>
+      </c>
+      <c r="G48" s="24" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="H48" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="I48" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M48" s="26" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="N48" s="26" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="O48" s="26" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="P48" s="26" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="Q48" s="26" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="22" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B48" s="23" t="n">
+      <c r="B49" s="23" t="n">
         <v>110027</v>
       </c>
-      <c r="C48" s="24" t="n">
+      <c r="C49" s="24" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D49" s="25" t="n">
         <v>595.47</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E49" s="25" t="n">
         <v>1056.36</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F49" s="25" t="n">
         <v>56.39</v>
       </c>
-      <c r="G48" s="24" t="n">
+      <c r="G49" s="24" t="n">
         <v>1.774</v>
       </c>
-      <c r="H48" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I48" s="24" t="n">
-        <v>1.7746</v>
-      </c>
-      <c r="J48" s="27" t="n">
-        <v>-0.0108</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L48" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M48" s="26" t="inlineStr">
+      <c r="H49" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I49" s="24" t="n">
+        <v>1.7269</v>
+      </c>
+      <c r="J49" s="27" t="n">
+        <v>-0.0266</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>-28.05</v>
+      </c>
+      <c r="L49" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:27</t>
+        </is>
+      </c>
+      <c r="M49" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N48" s="26" t="inlineStr">
+      <c r="N49" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O48" s="26" t="inlineStr">
+      <c r="O49" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P48" s="26" t="inlineStr">
+      <c r="P49" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q48" s="26" t="inlineStr">
+      <c r="Q49" s="26" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B49" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C49" s="30" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D49" s="31" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E49" s="31" t="n">
-        <v>73587.75999999999</v>
-      </c>
-      <c r="F49" s="31" t="n">
-        <v>7267.69</v>
-      </c>
-      <c r="G49" s="30" t="n">
-        <v>1.131</v>
-      </c>
-      <c r="H49" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I49" s="30" t="n">
-        <v>1.1312</v>
-      </c>
-      <c r="J49" s="33" t="n">
-        <v>-0.0257</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="L49" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M49" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N49" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O49" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P49" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q49" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B50" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C50" s="30" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D50" s="31" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>64169.34</v>
+        <v>73587.75999999999</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>5968.06</v>
+        <v>7267.69</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.0107</v>
+        <v>1.131</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.0105</v>
+        <v>1.0378</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0245</v>
+        <v>-0.0824</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-12.7</v>
+        <v>-6064</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3914,17 +3914,17 @@
       </c>
       <c r="N50" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O50" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P50" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q50" s="32" t="inlineStr">
@@ -3936,26 +3936,26 @@
     <row r="51">
       <c r="A51" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B51" s="29" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C51" s="30" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D51" s="31" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>39404.35</v>
+        <v>64169.34</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>7403.09</v>
+        <v>5968.06</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.2173</v>
+        <v>1.0107</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
@@ -3963,37 +3963,37 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.2311</v>
+        <v>0.9532</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0068</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>446.71</v>
+        <v>-0.0569</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>-3650.67</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N51" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O51" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P51" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q51" s="32" t="inlineStr">
@@ -4005,26 +4005,26 @@
     <row r="52">
       <c r="A52" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B52" s="29" t="n">
-        <v>1180</v>
+        <v>340001</v>
       </c>
       <c r="C52" s="30" t="n">
-        <v>0.7451</v>
+        <v>0.9886</v>
       </c>
       <c r="D52" s="31" t="n">
-        <v>41014.88</v>
+        <v>32370.29</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>36876.48</v>
+        <v>39404.35</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>6316.29</v>
+        <v>7403.09</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.8991</v>
+        <v>1.2173</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
@@ -4032,37 +4032,37 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8987000000000001</v>
+        <v>1.1974</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0181</v>
+        <v>-0.0164</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-16.41</v>
+        <v>-644.17</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N52" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O52" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P52" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q52" s="32" t="inlineStr">
@@ -4074,26 +4074,26 @@
     <row r="53">
       <c r="A53" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B53" s="29" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C53" s="30" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D53" s="31" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>35633.68</v>
+        <v>36876.48</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3633.67</v>
+        <v>6316.29</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.774</v>
+        <v>0.8991</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
@@ -4101,37 +4101,37 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.7746</v>
+        <v>0.8745000000000001</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0108</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>12.05</v>
+        <v>-0.0274</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>-1008.97</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N53" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O53" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P53" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q53" s="32" t="inlineStr">
@@ -4143,64 +4143,64 @@
     <row r="54">
       <c r="A54" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B54" s="29" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C54" s="30" t="n">
-        <v>1.091</v>
+        <v>1.5931</v>
       </c>
       <c r="D54" s="31" t="n">
-        <v>20716.63</v>
+        <v>20086.63</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>25025.69</v>
+        <v>35633.68</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2423.85</v>
+        <v>3633.67</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.208</v>
+        <v>1.774</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>0</v>
+        <v>1.7269</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>0</v>
+        <v>-0.0266</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-946.08</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N54" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O54" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P54" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q54" s="32" t="inlineStr">
@@ -4212,64 +4212,64 @@
     <row r="55">
       <c r="A55" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B55" s="29" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C55" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D55" s="31" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>24437.72</v>
+        <v>25025.69</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>5237.07</v>
+        <v>2423.85</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.671</v>
+        <v>1.208</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6693</v>
+        <v>0</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0295</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>-24.86</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N55" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O55" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P55" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q55" s="32" t="inlineStr">
@@ -4281,64 +4281,64 @@
     <row r="56">
       <c r="A56" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B56" s="29" t="n">
-        <v>164906</v>
+        <v>100038</v>
       </c>
       <c r="C56" s="30" t="n">
-        <v>1.1444</v>
+        <v>1.3129</v>
       </c>
       <c r="D56" s="31" t="n">
-        <v>16778.47</v>
+        <v>14624.61</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>23858.98</v>
+        <v>24437.72</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>4657.7</v>
+        <v>5237.07</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.422</v>
+        <v>1.671</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.39</v>
+        <v>1.5505</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0225</v>
+        <v>-0.0721</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-536.91</v>
+        <v>-1762.27</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2020-02-01 05:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N56" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O56" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P56" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q56" s="32" t="inlineStr">
@@ -4350,64 +4350,64 @@
     <row r="57">
       <c r="A57" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B57" s="29" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C57" s="30" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D57" s="31" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>23305.72</v>
+        <v>23858.98</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>4103.69</v>
+        <v>4657.7</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.1012</v>
+        <v>1.422</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.1006</v>
+        <v>1.3895</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0298</v>
+        <v>-0.0229</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-12.7</v>
+        <v>-545.3</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-01 05:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N57" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O57" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P57" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q57" s="32" t="inlineStr">
@@ -4419,26 +4419,26 @@
     <row r="58">
       <c r="A58" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B58" s="29" t="n">
-        <v>161017</v>
+        <v>1469</v>
       </c>
       <c r="C58" s="30" t="n">
-        <v>1.3432</v>
+        <v>0.9073</v>
       </c>
       <c r="D58" s="31" t="n">
-        <v>9529.809999999999</v>
+        <v>21163.93</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>16753.41</v>
+        <v>23305.72</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>3952.97</v>
+        <v>4103.69</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.758</v>
+        <v>1.1012</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7548</v>
+        <v>1.0186</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0337</v>
+        <v>-0.0751</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-30.5</v>
+        <v>-1748.14</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="N58" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O58" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P58" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q58" s="32" t="inlineStr">
@@ -4488,64 +4488,64 @@
     <row r="59">
       <c r="A59" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B59" s="29" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C59" s="30" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D59" s="31" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>13680.88</v>
+        <v>16753.41</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>-5519.31</v>
+        <v>3952.97</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.3671</v>
+        <v>1.758</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.381</v>
+        <v>1.6222</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>518.02</v>
+        <v>-0.0772</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>-1294.15</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:04</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N59" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O59" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P59" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q59" s="32" t="inlineStr">
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>10457.48</v>
+        <v>13680.88</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>557.48</v>
+        <v>-5519.31</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.5382</v>
+        <v>0.3671</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.4542</v>
+        <v>0.359</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0546</v>
+        <v>-0.0577</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-571.08</v>
+        <v>-301.87</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,26 +4626,26 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>1064</v>
+        <v>71</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.4562</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>13403.92</v>
+        <v>6798.52</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>8260.84</v>
+        <v>10457.48</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1860.46</v>
+        <v>557.48</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.6163</v>
+        <v>1.5382</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4653,37 +4653,37 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.6159</v>
+        <v>1.4638</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0327</v>
+        <v>-0.0484</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-5.36</v>
+        <v>-505.81</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:29</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4695,26 +4695,26 @@
     <row r="62">
       <c r="A62" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B62" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C62" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D62" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7688.13</v>
+        <v>8260.84</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>1287.93</v>
+        <v>1860.46</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4428</v>
+        <v>0.6163</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
@@ -4722,37 +4722,37 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.4477</v>
+        <v>0.5648</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0169</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>26.11</v>
+        <v>-0.0835</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-690.3</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N62" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O62" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P62" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q62" s="32" t="inlineStr">
@@ -4764,44 +4764,44 @@
     <row r="63">
       <c r="A63" s="28" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B63" s="29" t="n">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C63" s="30" t="n">
-        <v>0.9172</v>
+        <v>1.2011</v>
       </c>
       <c r="D63" s="31" t="n">
-        <v>5609.79</v>
+        <v>5328.62</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>7629.31</v>
+        <v>7688.13</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>2484.02</v>
+        <v>1287.93</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.36</v>
+        <v>1.4428</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0</v>
+        <v>1.3873</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>0</v>
+        <v>-0.0385</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-295.74</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="N63" s="32" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O63" s="32" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P63" s="32" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q63" s="32" t="inlineStr">
@@ -4833,64 +4833,64 @@
     <row r="64">
       <c r="A64" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B64" s="29" t="n">
-        <v>478</v>
+        <v>1061</v>
       </c>
       <c r="C64" s="30" t="n">
-        <v>1.9397</v>
+        <v>0.9172</v>
       </c>
       <c r="D64" s="31" t="n">
-        <v>3299.64</v>
+        <v>5609.79</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6889.32</v>
+        <v>7629.31</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>489.01</v>
+        <v>2484.02</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>2.0879</v>
+        <v>1.36</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0964</v>
+        <v>0</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>28.05</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N64" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="O64" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="P64" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>521</t>
         </is>
       </c>
       <c r="Q64" s="32" t="inlineStr">
@@ -4902,26 +4902,26 @@
     <row r="65">
       <c r="A65" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B65" s="29" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C65" s="30" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D65" s="31" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6854.09</v>
+        <v>6889.32</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>453.9</v>
+        <v>489.01</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.8728</v>
+        <v>2.0879</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.8718</v>
+        <v>1.9255</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.0263</v>
+        <v>-0.07779999999999999</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-7.85</v>
+        <v>-535.86</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4949,17 +4949,17 @@
       </c>
       <c r="N65" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O65" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P65" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q65" s="32" t="inlineStr">
@@ -4971,164 +4971,164 @@
     <row r="66">
       <c r="A66" s="28" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B66" s="29" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C66" s="30" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D66" s="31" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E66" s="31" t="n">
+        <v>6854.09</v>
+      </c>
+      <c r="F66" s="31" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="G66" s="30" t="n">
+        <v>0.8728</v>
+      </c>
+      <c r="H66" s="32" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I66" s="30" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="J66" s="33" t="n">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>-473.54</v>
+      </c>
+      <c r="L66" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M66" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N66" s="32" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O66" s="32" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="P66" s="32" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="Q66" s="32" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="28" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B66" s="29" t="n">
+      <c r="B67" s="29" t="n">
         <v>2903</v>
       </c>
-      <c r="C66" s="30" t="n">
+      <c r="C67" s="30" t="n">
         <v>0.8548</v>
       </c>
-      <c r="D66" s="31" t="n">
+      <c r="D67" s="31" t="n">
         <v>3889.32</v>
       </c>
-      <c r="E66" s="31" t="n">
+      <c r="E67" s="31" t="n">
         <v>3638.07</v>
       </c>
-      <c r="F66" s="31" t="n">
+      <c r="F67" s="31" t="n">
         <v>313.48</v>
       </c>
-      <c r="G66" s="30" t="n">
+      <c r="G67" s="30" t="n">
         <v>0.9354</v>
       </c>
-      <c r="H66" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I66" s="30" t="n">
-        <v>0.9351</v>
-      </c>
-      <c r="J66" s="33" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="L66" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M66" s="32" t="inlineStr">
+      <c r="H67" s="32" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I67" s="30" t="n">
+        <v>0.8626</v>
+      </c>
+      <c r="J67" s="33" t="n">
+        <v>-0.07779999999999999</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-283.14</v>
+      </c>
+      <c r="L67" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M67" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N66" s="32" t="inlineStr">
+      <c r="N67" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O66" s="32" t="inlineStr">
+      <c r="O67" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P66" s="32" t="inlineStr">
+      <c r="P67" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q66" s="32" t="inlineStr">
+      <c r="Q67" s="32" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>1.4347</v>
-      </c>
-      <c r="D67" s="5" t="n">
-        <v>1182.45</v>
-      </c>
-      <c r="E67" s="5" t="n">
-        <v>1696.82</v>
-      </c>
-      <c r="F67" s="5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G67" s="4" t="n">
-        <v>1.435</v>
-      </c>
-      <c r="H67" s="6" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I67" s="4" t="n">
-        <v>1.4333</v>
-      </c>
-      <c r="J67" s="7" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="L67" s="6" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M67" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N67" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O67" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P67" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q67" s="6" t="inlineStr">
-        <is>
-          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1.6574</v>
+        <v>1.4347</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>1013.85</v>
+        <v>1182.45</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1672.85</v>
+        <v>1696.82</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-7.5</v>
+        <v>0.35</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1.65</v>
+        <v>1.435</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.6476</v>
+        <v>1.3366</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>-0.0257</v>
+        <v>-0.06859999999999999</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>-2.43</v>
+        <v>-116.35</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5156,17 +5156,17 @@
       </c>
       <c r="N68" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O68" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P68" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q68" s="6" t="inlineStr">
@@ -5178,26 +5178,26 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3318</v>
+        <v>90010</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>0.9386</v>
+        <v>1.6574</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>1548.03</v>
+        <v>1013.85</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1502.67</v>
+        <v>1672.85</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>49.69</v>
+        <v>-7.5</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>0.9707</v>
+        <v>1.65</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>0.97</v>
+        <v>1.5141</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0275</v>
+        <v>-0.0824</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-1.08</v>
+        <v>-137.78</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5225,17 +5225,17 @@
       </c>
       <c r="N69" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O69" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P69" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q69" s="6" t="inlineStr">
@@ -5247,26 +5247,26 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>1.3485</v>
+        <v>0.9386</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>898.04</v>
+        <v>1548.03</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1343.74</v>
+        <v>1502.67</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>132.73</v>
+        <v>49.69</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>1.4963</v>
+        <v>0.9707</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
@@ -5274,37 +5274,37 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>1.4155</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.054</v>
+        <v>-0.0742</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-72.56</v>
+        <v>-111.46</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N70" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O70" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P70" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q70" s="6" t="inlineStr">
@@ -5316,26 +5316,26 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>1.7966</v>
+        <v>1.3485</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>492.58</v>
+        <v>898.04</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>960.09</v>
+        <v>1343.74</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>75.12</v>
+        <v>132.73</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1.9491</v>
+        <v>1.4963</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
@@ -5343,37 +5343,37 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.9489</v>
+        <v>1.426</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0355</v>
+        <v>-0.047</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-0.1</v>
+        <v>-63.13</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N71" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O71" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P71" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q71" s="6" t="inlineStr">
@@ -5385,26 +5385,26 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>2.1277</v>
+        <v>1.7966</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>421.99</v>
+        <v>492.58</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>953.8200000000001</v>
+        <v>960.09</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>55.96</v>
+        <v>75.12</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>2.2603</v>
+        <v>1.9491</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2.2591</v>
+        <v>1.7902</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0346</v>
+        <v>-0.0815</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-0.51</v>
+        <v>-78.27</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5437,12 +5437,12 @@
       </c>
       <c r="O72" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P72" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q72" s="6" t="inlineStr">
@@ -5454,26 +5454,26 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>0.9599</v>
+        <v>2.1277</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>390.82</v>
+        <v>421.99</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>395</v>
+        <v>953.8200000000001</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>19.85</v>
+        <v>55.96</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.0107</v>
+        <v>2.2603</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.0105</v>
+        <v>2.0797</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0245</v>
+        <v>-0.0799</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-0.08</v>
+        <v>-76.20999999999999</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5501,17 +5501,17 @@
       </c>
       <c r="N73" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O73" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P73" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q73" s="6" t="inlineStr">
@@ -5523,26 +5523,26 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>211.6</v>
+        <v>395</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>0.39</v>
+        <v>19.85</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>0.9847</v>
+        <v>1.0107</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.9862</v>
+        <v>0.9532</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0261</v>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>0.32</v>
+        <v>-0.0569</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>-22.47</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5570,17 +5570,17 @@
       </c>
       <c r="N74" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,26 +5592,26 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1.2538</v>
+        <v>0.9829</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>171.26</v>
+        <v>214.89</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>206.09</v>
+        <v>211.6</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-8.630000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.2034</v>
+        <v>0.9847</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.203</v>
+        <v>0.9137</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.023</v>
+        <v>-0.0721</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-15.26</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5639,17 +5639,17 @@
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,26 +5661,26 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.2538</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>212.74</v>
+        <v>171.26</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>180.25</v>
+        <v>206.09</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>37.55</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.2034</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.8478</v>
+        <v>1.1295</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0113</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>0.11</v>
+        <v>-0.0614</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-12.66</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,44 +5730,44 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>83.56999999999999</v>
+        <v>180.25</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>3.53</v>
+        <v>37.55</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.346</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.3125</v>
+        <v>0.8369</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0249</v>
+        <v>-0.0123</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-2.08</v>
+        <v>-2.21</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,44 +5799,44 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.2891</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>25.8</v>
+        <v>62.09</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>35</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>-2.08</v>
+        <v>3.53</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.3565</v>
+        <v>1.346</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.3541</v>
+        <v>1.3134</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.027</v>
+        <v>-0.0242</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-0.06</v>
+        <v>-2.02</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,26 +5868,26 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>90010</v>
+        <v>310398</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.6607</v>
+        <v>1.4372</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>1128.82</v>
+        <v>25.8</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1862.55</v>
+        <v>35</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-12.08</v>
+        <v>-2.08</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.65</v>
+        <v>1.3565</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.6476</v>
+        <v>1.2635</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0257</v>
+        <v>-0.06859999999999999</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-2.71</v>
+        <v>-2.4</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5915,48 +5915,48 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉母</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.4346</v>
+        <v>1.6607</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1225.03</v>
+        <v>1128.82</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1757.92</v>
+        <v>1862.55</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>0.49</v>
+        <v>-12.08</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.435</v>
+        <v>1.65</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.4333</v>
+        <v>1.5141</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.027</v>
+        <v>-0.0824</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-2.08</v>
+        <v>-153.41</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="N80" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
@@ -6006,26 +6006,26 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.9393</v>
+        <v>1.4346</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>1647.71</v>
+        <v>1225.03</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1599.43</v>
+        <v>1757.92</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>51.74</v>
+        <v>0.49</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.9707</v>
+        <v>1.435</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.97</v>
+        <v>1.3366</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0275</v>
+        <v>-0.06859999999999999</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-1.15</v>
+        <v>-120.54</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6053,17 +6053,17 @@
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,26 +6075,26 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>1.3514</v>
+        <v>0.9393</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>915.97</v>
+        <v>1647.71</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1370.57</v>
+        <v>1599.43</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>132.72</v>
+        <v>51.74</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.4963</v>
+        <v>0.9707</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
@@ -6102,37 +6102,37 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.4155</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.054</v>
+        <v>-0.0742</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-74.01000000000001</v>
+        <v>-118.64</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2020-01-31 16:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
@@ -6144,26 +6144,26 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1031.05</v>
+        <v>1370.57</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>79.3</v>
+        <v>132.72</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.9491</v>
+        <v>1.4963</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
@@ -6171,37 +6171,37 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.9489</v>
+        <v>1.426</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0355</v>
+        <v>-0.047</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.11</v>
+        <v>-64.39</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N83" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
@@ -6213,26 +6213,26 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>2.142</v>
+        <v>1.7992</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>451.58</v>
+        <v>528.99</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1020.71</v>
+        <v>1031.05</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>53.42</v>
+        <v>79.3</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>2.2603</v>
+        <v>1.9491</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.2591</v>
+        <v>1.7902</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0346</v>
+        <v>-0.0815</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-0.54</v>
+        <v>-84.06</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6265,12 +6265,12 @@
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
@@ -6282,26 +6282,26 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>0.9588</v>
+        <v>2.142</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>426.97</v>
+        <v>451.58</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>431.54</v>
+        <v>1020.71</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>22.16</v>
+        <v>53.42</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.0107</v>
+        <v>2.2603</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.0105</v>
+        <v>2.0797</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0245</v>
+        <v>-0.0799</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-0.09</v>
+        <v>-81.56</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6329,17 +6329,17 @@
       </c>
       <c r="N85" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
@@ -6351,26 +6351,26 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>1594</v>
+        <v>968</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.2512</v>
+        <v>0.9588</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>220.69</v>
+        <v>426.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>265.58</v>
+        <v>431.54</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-10.55</v>
+        <v>22.16</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.2034</v>
+        <v>1.0107</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.203</v>
+        <v>0.9532</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.023</v>
+        <v>-0.0569</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.09</v>
+        <v>-24.55</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,26 +6420,26 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2512</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>227.52</v>
+        <v>220.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>224.04</v>
+        <v>265.58</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>0.52</v>
+        <v>-10.55</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9847</v>
+        <v>1.2034</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9862</v>
+        <v>1.1295</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0261</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>0.34</v>
+        <v>-0.0614</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>-16.31</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="N87" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6489,44 +6489,44 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>501050</v>
+        <v>501029</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.284</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>142.1</v>
+        <v>227.52</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>191.27</v>
+        <v>224.04</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>8.81</v>
+        <v>0.52</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.346</v>
+        <v>0.9847</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.3125</v>
+        <v>0.9137</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0249</v>
+        <v>-0.0721</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-4.76</v>
+        <v>-16.15</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6536,17 +6536,17 @@
       </c>
       <c r="N88" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O88" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P88" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q88" s="6" t="inlineStr">
@@ -6558,44 +6558,44 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.284</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>212.74</v>
+        <v>142.1</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>180.25</v>
+        <v>191.27</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>37.55</v>
+        <v>8.81</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.346</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.8478</v>
+        <v>1.3134</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0113</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>0.11</v>
+        <v>-0.0242</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>-4.63</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6605,17 +6605,17 @@
       </c>
       <c r="N89" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O89" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P89" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q89" s="6" t="inlineStr">
@@ -6627,164 +6627,164 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
+          <t>天弘中证医药100A</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>0.8473000000000001</v>
+      </c>
+      <c r="H90" s="6" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>0.8369</v>
+      </c>
+      <c r="J90" s="7" t="n">
+        <v>-0.0123</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="L90" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M90" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N90" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O90" s="6" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="P90" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="Q90" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉母</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
           <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B91" s="3" t="n">
         <v>310398</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C91" s="4" t="n">
         <v>1.4372</v>
       </c>
-      <c r="D90" s="5" t="n">
+      <c r="D91" s="5" t="n">
         <v>25.8</v>
       </c>
-      <c r="E90" s="5" t="n">
+      <c r="E91" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F91" s="5" t="n">
         <v>-2.08</v>
       </c>
-      <c r="G90" s="4" t="n">
+      <c r="G91" s="4" t="n">
         <v>1.3565</v>
       </c>
-      <c r="H90" s="6" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I90" s="4" t="n">
-        <v>1.3541</v>
-      </c>
-      <c r="J90" s="7" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="K90" s="8" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="L90" s="6" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M90" s="6" t="inlineStr">
+      <c r="H91" s="6" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>1.2635</v>
+      </c>
+      <c r="J91" s="7" t="n">
+        <v>-0.06859999999999999</v>
+      </c>
+      <c r="K91" s="8" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="L91" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:27</t>
+        </is>
+      </c>
+      <c r="M91" s="6" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N90" s="6" t="inlineStr">
+      <c r="N91" s="6" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O90" s="6" t="inlineStr">
+      <c r="O91" s="6" t="inlineStr">
         <is>
           <t>300价值</t>
         </is>
       </c>
-      <c r="P90" s="6" t="inlineStr">
+      <c r="P91" s="6" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="Q90" s="6" t="inlineStr">
+      <c r="Q91" s="6" t="inlineStr">
         <is>
           <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="22" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B91" s="23" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C91" s="24" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D91" s="25" t="n">
-        <v>78202.03</v>
-      </c>
-      <c r="E91" s="25" t="n">
-        <v>80962.56</v>
-      </c>
-      <c r="F91" s="25" t="n">
-        <v>523.95</v>
-      </c>
-      <c r="G91" s="24" t="n">
-        <v>1.0353</v>
-      </c>
-      <c r="H91" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I91" s="24" t="n">
-        <v>1.0357</v>
-      </c>
-      <c r="J91" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>31.28</v>
-      </c>
-      <c r="L91" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M91" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N91" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O91" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P91" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q91" s="26" t="inlineStr">
-        <is>
-          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>交银信用添利债券(LOF)</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B92" s="23" t="n">
-        <v>164902</v>
+        <v>6793</v>
       </c>
       <c r="C92" s="24" t="n">
-        <v>1.1469</v>
+        <v>1.0286</v>
       </c>
       <c r="D92" s="25" t="n">
-        <v>132767.68</v>
+        <v>78202.03</v>
       </c>
       <c r="E92" s="25" t="n">
-        <v>152682.83</v>
+        <v>80962.56</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>411.58</v>
+        <v>523.95</v>
       </c>
       <c r="G92" s="24" t="n">
-        <v>1.15</v>
+        <v>1.0353</v>
       </c>
       <c r="H92" s="26" t="inlineStr">
         <is>
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.1506</v>
+        <v>1.0371</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>79.66</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K92" s="21" t="n">
+        <v>140.76</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6834,26 +6834,26 @@
     <row r="93">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B93" s="23" t="n">
-        <v>519700</v>
+        <v>164902</v>
       </c>
       <c r="C93" s="24" t="n">
-        <v>1.4657</v>
+        <v>1.1469</v>
       </c>
       <c r="D93" s="25" t="n">
-        <v>11598.58</v>
+        <v>132767.68</v>
       </c>
       <c r="E93" s="25" t="n">
-        <v>18847.69</v>
+        <v>152682.83</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1847.65</v>
+        <v>411.58</v>
       </c>
       <c r="G93" s="24" t="n">
-        <v>1.625</v>
+        <v>1.15</v>
       </c>
       <c r="H93" s="26" t="inlineStr">
         <is>
@@ -6861,37 +6861,37 @@
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.6247</v>
+        <v>1.1522</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>-0.0277</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>-3.48</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K93" s="21" t="n">
+        <v>292.09</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N93" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O93" s="26" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P93" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q93" s="26" t="inlineStr">
@@ -6903,26 +6903,26 @@
     <row r="94">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B94" s="23" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C94" s="24" t="n">
-        <v>1.0644</v>
+        <v>1.4657</v>
       </c>
       <c r="D94" s="25" t="n">
-        <v>144612.8</v>
+        <v>11598.58</v>
       </c>
       <c r="E94" s="25" t="n">
-        <v>155458.76</v>
+        <v>18847.69</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>1532.9</v>
+        <v>1847.65</v>
       </c>
       <c r="G94" s="24" t="n">
-        <v>1.075</v>
+        <v>1.625</v>
       </c>
       <c r="H94" s="26" t="inlineStr">
         <is>
@@ -6930,37 +6930,37 @@
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.0757</v>
+        <v>1.5153</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>101.23</v>
+        <v>-0.0675</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>-1272.36</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N94" s="26" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O94" s="26" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="P94" s="26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q94" s="26" t="inlineStr">
@@ -6972,26 +6972,26 @@
     <row r="95">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B95" s="23" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C95" s="24" t="n">
-        <v>1.0674</v>
+        <v>1.0644</v>
       </c>
       <c r="D95" s="25" t="n">
-        <v>134080.44</v>
+        <v>144612.8</v>
       </c>
       <c r="E95" s="25" t="n">
-        <v>144002.39</v>
+        <v>155458.76</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>884.9299999999999</v>
+        <v>1532.9</v>
       </c>
       <c r="G95" s="24" t="n">
-        <v>1.074</v>
+        <v>1.075</v>
       </c>
       <c r="H95" s="26" t="inlineStr">
         <is>
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.0746</v>
+        <v>1.0772</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>80.45</v>
+        <v>0.002</v>
+      </c>
+      <c r="K95" s="21" t="n">
+        <v>318.15</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7041,26 +7041,26 @@
     <row r="96">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B96" s="23" t="n">
-        <v>519738</v>
+        <v>519723</v>
       </c>
       <c r="C96" s="24" t="n">
-        <v>1.1791</v>
+        <v>1.0674</v>
       </c>
       <c r="D96" s="25" t="n">
-        <v>68092.81</v>
+        <v>134080.44</v>
       </c>
       <c r="E96" s="25" t="n">
-        <v>80281.42</v>
+        <v>144002.39</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>-6.81</v>
+        <v>884.9299999999999</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>1.179</v>
+        <v>1.074</v>
       </c>
       <c r="H96" s="26" t="inlineStr">
         <is>
@@ -7068,37 +7068,37 @@
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.1771</v>
+        <v>1.0759</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>-0.0067</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>-129.38</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K96" s="21" t="n">
+        <v>254.75</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N96" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O96" s="26" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P96" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q96" s="26" t="inlineStr">
@@ -7110,26 +7110,26 @@
     <row r="97">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B97" s="23" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C97" s="24" t="n">
-        <v>1.2439</v>
+        <v>1.1791</v>
       </c>
       <c r="D97" s="25" t="n">
-        <v>59685.02</v>
+        <v>68092.81</v>
       </c>
       <c r="E97" s="25" t="n">
-        <v>75143.44</v>
+        <v>80281.42</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>901.24</v>
+        <v>-6.81</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>1.259</v>
+        <v>1.179</v>
       </c>
       <c r="H97" s="26" t="inlineStr">
         <is>
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.2612</v>
+        <v>1.1585</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>-0.0022</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>131.31</v>
+        <v>-0.0173</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>-1395.9</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="P97" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q97" s="26" t="inlineStr">
@@ -7179,164 +7179,164 @@
     <row r="98">
       <c r="A98" s="22" t="inlineStr">
         <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B98" s="23" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C98" s="24" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D98" s="25" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E98" s="25" t="n">
+        <v>75143.44</v>
+      </c>
+      <c r="F98" s="25" t="n">
+        <v>901.24</v>
+      </c>
+      <c r="G98" s="24" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="H98" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I98" s="24" t="n">
+        <v>1.2449</v>
+      </c>
+      <c r="J98" s="27" t="n">
+        <v>-0.0112</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>-841.5599999999999</v>
+      </c>
+      <c r="L98" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:27</t>
+        </is>
+      </c>
+      <c r="M98" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N98" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O98" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P98" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q98" s="26" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="22" t="inlineStr">
+        <is>
           <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B98" s="23" t="n">
+      <c r="B99" s="23" t="n">
         <v>519755</v>
       </c>
-      <c r="C98" s="24" t="n">
+      <c r="C99" s="24" t="n">
         <v>1.2894</v>
       </c>
-      <c r="D98" s="25" t="n">
+      <c r="D99" s="25" t="n">
         <v>76964.17</v>
       </c>
-      <c r="E98" s="25" t="n">
+      <c r="E99" s="25" t="n">
         <v>100976.99</v>
       </c>
-      <c r="F98" s="25" t="n">
+      <c r="F99" s="25" t="n">
         <v>1739.39</v>
       </c>
-      <c r="G98" s="24" t="n">
+      <c r="G99" s="24" t="n">
         <v>1.312</v>
       </c>
-      <c r="H98" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I98" s="24" t="n">
-        <v>1.3106</v>
-      </c>
-      <c r="J98" s="27" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K98" s="8" t="n">
-        <v>-107.75</v>
-      </c>
-      <c r="L98" s="26" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M98" s="26" t="inlineStr">
+      <c r="H99" s="26" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I99" s="24" t="n">
+        <v>1.2958</v>
+      </c>
+      <c r="J99" s="27" t="n">
+        <v>-0.0124</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>-1246.82</v>
+      </c>
+      <c r="L99" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:27</t>
+        </is>
+      </c>
+      <c r="M99" s="26" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="N98" s="26" t="inlineStr">
+      <c r="N99" s="26" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="O98" s="26" t="inlineStr">
+      <c r="O99" s="26" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="P98" s="26" t="inlineStr">
+      <c r="P99" s="26" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q98" s="26" t="inlineStr">
+      <c r="Q99" s="26" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="28" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B99" s="29" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C99" s="30" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D99" s="31" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E99" s="31" t="n">
-        <v>11356.82</v>
-      </c>
-      <c r="F99" s="31" t="n">
-        <v>1155.95</v>
-      </c>
-      <c r="G99" s="30" t="n">
-        <v>1.1711</v>
-      </c>
-      <c r="H99" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I99" s="30" t="n">
-        <v>1.1707</v>
-      </c>
-      <c r="J99" s="33" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="L99" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23 15:00</t>
-        </is>
-      </c>
-      <c r="M99" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N99" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O99" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P99" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q99" s="32" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B100" s="29" t="n">
-        <v>100032</v>
+        <v>162711</v>
       </c>
       <c r="C100" s="30" t="n">
-        <v>1.0142</v>
+        <v>1.0519</v>
       </c>
       <c r="D100" s="31" t="n">
-        <v>8677.6</v>
+        <v>9697.57</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>9814.370000000001</v>
+        <v>11356.82</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>1013.54</v>
+        <v>1155.95</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.131</v>
+        <v>1.1711</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.1312</v>
+        <v>1.08</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0257</v>
-      </c>
-      <c r="K100" s="9" t="n">
-        <v>1.74</v>
+        <v>-0.07779999999999999</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>-883.45</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7364,17 +7364,17 @@
       </c>
       <c r="N100" s="32" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O100" s="32" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P100" s="32" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q100" s="32" t="inlineStr">
@@ -7386,26 +7386,26 @@
     <row r="101">
       <c r="A101" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B101" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C101" s="30" t="n">
-        <v>0.853</v>
+        <v>1.0142</v>
       </c>
       <c r="D101" s="31" t="n">
-        <v>6096.21</v>
+        <v>8677.6</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>6161.44</v>
+        <v>9814.370000000001</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>961.37</v>
+        <v>1013.54</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.0107</v>
+        <v>1.131</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.0105</v>
+        <v>1.0378</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0245</v>
+        <v>-0.0824</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>-1.22</v>
+        <v>-808.75</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7433,17 +7433,17 @@
       </c>
       <c r="N101" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O101" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P101" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q101" s="32" t="inlineStr">
@@ -7455,26 +7455,26 @@
     <row r="102">
       <c r="A102" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B102" s="29" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C102" s="30" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D102" s="31" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>6069.18</v>
+        <v>6161.44</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>1269.05</v>
+        <v>961.37</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8991</v>
+        <v>1.0107</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8987000000000001</v>
+        <v>0.9532</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0181</v>
+        <v>-0.0569</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-2.7</v>
+        <v>-350.53</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7507,12 +7507,12 @@
       </c>
       <c r="O102" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P102" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q102" s="32" t="inlineStr">
@@ -7524,26 +7524,26 @@
     <row r="103">
       <c r="A103" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B103" s="29" t="n">
-        <v>100038</v>
+        <v>1180</v>
       </c>
       <c r="C103" s="30" t="n">
-        <v>1.3043</v>
+        <v>0.7111</v>
       </c>
       <c r="D103" s="31" t="n">
-        <v>2760.12</v>
+        <v>6750.28</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>4612.16</v>
+        <v>6069.18</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>1012.14</v>
+        <v>1269.05</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.671</v>
+        <v>0.8991</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.6693</v>
+        <v>0.8745000000000001</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0295</v>
+        <v>-0.0274</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-4.69</v>
+        <v>-166.06</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7571,17 +7571,17 @@
       </c>
       <c r="N103" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O103" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P103" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q103" s="32" t="inlineStr">
@@ -7593,26 +7593,26 @@
     <row r="104">
       <c r="A104" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B104" s="29" t="n">
-        <v>4752</v>
+        <v>100038</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>0.7235</v>
+        <v>1.3043</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>4423.48</v>
+        <v>2760.12</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>3860.81</v>
+        <v>4612.16</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>660.4299999999999</v>
+        <v>1012.14</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>0.8728</v>
+        <v>1.671</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>0.8718</v>
+        <v>1.5505</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>-0.0263</v>
+        <v>-0.0721</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>-4.42</v>
+        <v>-332.59</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7640,17 +7640,17 @@
       </c>
       <c r="N104" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O104" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P104" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q104" s="32" t="inlineStr">
@@ -7662,26 +7662,26 @@
     <row r="105">
       <c r="A105" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B105" s="29" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3666.84</v>
+        <v>3860.81</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>466.46</v>
+        <v>660.4299999999999</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.6163</v>
+        <v>0.8728</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.6159</v>
+        <v>0.8125</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0327</v>
+        <v>-0.06909999999999999</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>-2.38</v>
+        <v>-266.74</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7714,12 +7714,12 @@
       </c>
       <c r="O105" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P105" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q105" s="32" t="inlineStr">
@@ -7731,26 +7731,26 @@
     <row r="106">
       <c r="A106" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B106" s="29" t="n">
-        <v>161017</v>
+        <v>1064</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>1.325</v>
+        <v>0.5379</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>2046.97</v>
+        <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3598.57</v>
+        <v>3666.84</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>886.34</v>
+        <v>466.46</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.758</v>
+        <v>0.6163</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.7548</v>
+        <v>0.5648</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0337</v>
+        <v>-0.0835</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>-6.55</v>
+        <v>-306.41</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7778,17 +7778,17 @@
       </c>
       <c r="N106" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O106" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P106" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q106" s="32" t="inlineStr">
@@ -7800,26 +7800,26 @@
     <row r="107">
       <c r="A107" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B107" s="29" t="n">
-        <v>110027</v>
+        <v>161017</v>
       </c>
       <c r="C107" s="30" t="n">
-        <v>1.6102</v>
+        <v>1.325</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>1981.84</v>
+        <v>2046.97</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>3515.78</v>
+        <v>3598.57</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>324.63</v>
+        <v>886.34</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.774</v>
+        <v>1.758</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
@@ -7827,37 +7827,37 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.7746</v>
+        <v>1.6222</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0108</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>1.19</v>
+        <v>-0.0772</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>-277.98</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N107" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O107" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P107" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q107" s="32" t="inlineStr">
@@ -7869,26 +7869,26 @@
     <row r="108">
       <c r="A108" s="28" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B108" s="29" t="n">
-        <v>110026</v>
+        <v>110027</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>1.319</v>
+        <v>1.6102</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>1213.09</v>
+        <v>1981.84</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2400.22</v>
+        <v>3515.78</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>800.15</v>
+        <v>324.63</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.9786</v>
+        <v>1.774</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
@@ -7896,37 +7896,37 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.9781</v>
+        <v>1.7269</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0315</v>
+        <v>-0.0266</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-0.61</v>
+        <v>-93.34</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N108" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O108" s="32" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P108" s="32" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q108" s="32" t="inlineStr">
@@ -7938,64 +7938,64 @@
     <row r="109">
       <c r="A109" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B109" s="29" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>1.0612</v>
+        <v>1.319</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>1884.74</v>
+        <v>1213.09</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>2276.77</v>
+        <v>2400.22</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>276.68</v>
+        <v>800.15</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.208</v>
+        <v>1.9786</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0</v>
+        <v>1.8711</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>0</v>
+        <v>-0.0543</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>-130.41</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N109" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O109" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P109" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q109" s="32" t="inlineStr">
@@ -8007,26 +8007,26 @@
     <row r="110">
       <c r="A110" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B110" s="29" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>2001.17</v>
+        <v>2276.77</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>401.08</v>
+        <v>276.68</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.422</v>
+        <v>1.208</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
@@ -8034,37 +8034,37 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0225</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>-45.03</v>
+        <v>0</v>
+      </c>
+      <c r="K110" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2020-02-01 05:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N110" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O110" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P110" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q110" s="32" t="inlineStr">
@@ -8076,64 +8076,64 @@
     <row r="111">
       <c r="A111" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B111" s="29" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C111" s="30" t="n">
-        <v>0.9816</v>
+        <v>1.137</v>
       </c>
       <c r="D111" s="31" t="n">
-        <v>1630.08</v>
+        <v>1407.29</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1984.3</v>
+        <v>2001.17</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>384.21</v>
+        <v>401.08</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.2173</v>
+        <v>1.422</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.2311</v>
+        <v>1.3895</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0068</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>22.5</v>
+        <v>-0.0229</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>-45.74</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-01 05:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N111" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O111" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P111" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q111" s="32" t="inlineStr">
@@ -8145,26 +8145,26 @@
     <row r="112">
       <c r="A112" s="28" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B112" s="29" t="n">
-        <v>1051</v>
+        <v>340001</v>
       </c>
       <c r="C112" s="30" t="n">
-        <v>0.8966</v>
+        <v>0.9816</v>
       </c>
       <c r="D112" s="31" t="n">
-        <v>1338.46</v>
+        <v>1630.08</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1341.14</v>
+        <v>1984.3</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>141.07</v>
+        <v>384.21</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.002</v>
+        <v>1.2173</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
@@ -8172,37 +8172,37 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.0023</v>
+        <v>1.1974</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0269</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>0.4</v>
+        <v>-0.0164</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>-32.44</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:27</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N112" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O112" s="32" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P112" s="32" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q112" s="32" t="inlineStr">
@@ -8214,26 +8214,26 @@
     <row r="113">
       <c r="A113" s="28" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B113" s="29" t="n">
-        <v>162413</v>
+        <v>1051</v>
       </c>
       <c r="C113" s="30" t="n">
-        <v>0.776</v>
+        <v>0.8966</v>
       </c>
       <c r="D113" s="31" t="n">
-        <v>1546.42</v>
+        <v>1338.46</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1300.54</v>
+        <v>1341.14</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>100.52</v>
+        <v>141.07</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.841</v>
+        <v>1.002</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8401</v>
+        <v>0.9358</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0354</v>
+        <v>-0.066</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>-1.39</v>
+        <v>-88.61</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8261,17 +8261,17 @@
       </c>
       <c r="N113" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O113" s="32" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P113" s="32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q113" s="32" t="inlineStr">
@@ -8283,64 +8283,64 @@
     <row r="114">
       <c r="A114" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B114" s="29" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C114" s="30" t="n">
-        <v>0.4776</v>
+        <v>0.776</v>
       </c>
       <c r="D114" s="31" t="n">
-        <v>3350.7</v>
+        <v>1546.42</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>1230.04</v>
+        <v>1300.54</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>-370.25</v>
+        <v>100.52</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>0.3671</v>
+        <v>0.841</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>0.381</v>
+        <v>0.7733</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>46.57</v>
+        <v>-0.0805</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>-104.69</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:04</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N114" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O114" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="P114" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>123</t>
         </is>
       </c>
       <c r="Q114" s="32" t="inlineStr">
@@ -8352,64 +8352,64 @@
     <row r="115">
       <c r="A115" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B115" s="29" t="n">
-        <v>1469</v>
+        <v>162411</v>
       </c>
       <c r="C115" s="30" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.4776</v>
       </c>
       <c r="D115" s="31" t="n">
-        <v>900.35</v>
+        <v>3350.7</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>991.47</v>
+        <v>1230.04</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>191.41</v>
+        <v>-370.25</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.1012</v>
+        <v>0.3671</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.1006</v>
+        <v>0.359</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0298</v>
+        <v>-0.0577</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>-0.54</v>
+        <v>-27.14</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N115" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O115" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P115" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q115" s="32" t="inlineStr">
@@ -8421,26 +8421,26 @@
     <row r="116">
       <c r="A116" s="28" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B116" s="29" t="n">
-        <v>216</v>
+        <v>1469</v>
       </c>
       <c r="C116" s="30" t="n">
-        <v>1.0903</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D116" s="31" t="n">
-        <v>733.79</v>
+        <v>900.35</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>933.38</v>
+        <v>991.47</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>133.33</v>
+        <v>191.41</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.272</v>
+        <v>1.1012</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
@@ -8448,37 +8448,37 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.2723</v>
+        <v>1.0186</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>0.22</v>
+        <v>-0.0751</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>-74.37</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:30</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N116" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O116" s="32" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P116" s="32" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q116" s="32" t="inlineStr">
@@ -8490,26 +8490,26 @@
     <row r="117">
       <c r="A117" s="28" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B117" s="29" t="n">
-        <v>502010</v>
+        <v>216</v>
       </c>
       <c r="C117" s="30" t="n">
-        <v>0.8063</v>
+        <v>1.0903</v>
       </c>
       <c r="D117" s="31" t="n">
-        <v>496.13</v>
+        <v>733.79</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>528.28</v>
+        <v>933.38</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>128.25</v>
+        <v>133.33</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.0648</v>
+        <v>1.272</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
@@ -8517,37 +8517,37 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.0626</v>
+        <v>1.3045</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0411</v>
-      </c>
-      <c r="K117" s="8" t="n">
-        <v>-1.09</v>
+        <v>0.0256</v>
+      </c>
+      <c r="K117" s="21" t="n">
+        <v>23.85</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N117" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O117" s="32" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P117" s="32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q117" s="32" t="inlineStr">
@@ -8559,26 +8559,26 @@
     <row r="118">
       <c r="A118" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B118" s="29" t="n">
-        <v>519977</v>
+        <v>502010</v>
       </c>
       <c r="C118" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.8063</v>
       </c>
       <c r="D118" s="31" t="n">
-        <v>333.04</v>
+        <v>496.13</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>480.51</v>
+        <v>528.28</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>80.5</v>
+        <v>128.25</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.4428</v>
+        <v>1.0648</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
@@ -8586,37 +8586,37 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.4477</v>
+        <v>0.9637</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0169</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>1.63</v>
+        <v>-0.0949</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>-50.16</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N118" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O118" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P118" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q118" s="32" t="inlineStr">
@@ -8628,26 +8628,26 @@
     <row r="119">
       <c r="A119" s="28" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B119" s="29" t="n">
-        <v>51</v>
+        <v>519977</v>
       </c>
       <c r="C119" s="30" t="n">
-        <v>1.2285</v>
+        <v>1.2011</v>
       </c>
       <c r="D119" s="31" t="n">
-        <v>325.61</v>
+        <v>333.04</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>435.99</v>
+        <v>480.51</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>35.98</v>
+        <v>80.5</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.339</v>
+        <v>1.4428</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
@@ -8655,37 +8655,37 @@
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.3394</v>
+        <v>1.3873</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>-0.0295</v>
-      </c>
-      <c r="K119" s="9" t="n">
-        <v>0.13</v>
+        <v>-0.0385</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>-18.48</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:26</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N119" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O119" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P119" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q119" s="32" t="inlineStr">
@@ -8697,26 +8697,26 @@
     <row r="120">
       <c r="A120" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B120" s="29" t="n">
-        <v>478</v>
+        <v>51</v>
       </c>
       <c r="C120" s="30" t="n">
-        <v>1.9396</v>
+        <v>1.2285</v>
       </c>
       <c r="D120" s="31" t="n">
-        <v>206.23</v>
+        <v>325.61</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>430.59</v>
+        <v>435.99</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>30.58</v>
+        <v>35.98</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>2.0879</v>
+        <v>1.339</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
@@ -8724,17 +8724,17 @@
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0964</v>
+        <v>1.2419</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0337</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>1.75</v>
+        <v>-0.0725</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>-31.62</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2020-01-23 15:00</t>
+          <t>2020-02-03 10:28</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8744,17 +8744,17 @@
       </c>
       <c r="N120" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O120" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P120" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q120" s="32" t="inlineStr">
@@ -8766,67 +8766,136 @@
     <row r="121">
       <c r="A121" s="28" t="inlineStr">
         <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B121" s="29" t="n">
+        <v>478</v>
+      </c>
+      <c r="C121" s="30" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D121" s="31" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E121" s="31" t="n">
+        <v>430.59</v>
+      </c>
+      <c r="F121" s="31" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="G121" s="30" t="n">
+        <v>2.0879</v>
+      </c>
+      <c r="H121" s="32" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I121" s="30" t="n">
+        <v>1.9255</v>
+      </c>
+      <c r="J121" s="33" t="n">
+        <v>-0.07779999999999999</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>-33.49</v>
+      </c>
+      <c r="L121" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:28</t>
+        </is>
+      </c>
+      <c r="M121" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N121" s="32" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O121" s="32" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P121" s="32" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q121" s="32" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="28" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B121" s="29" t="n">
+      <c r="B122" s="29" t="n">
         <v>71</v>
       </c>
-      <c r="C121" s="30" t="n">
+      <c r="C122" s="30" t="n">
         <v>1.452</v>
       </c>
-      <c r="D121" s="31" t="n">
+      <c r="D122" s="31" t="n">
         <v>275.49</v>
       </c>
-      <c r="E121" s="31" t="n">
+      <c r="E122" s="31" t="n">
         <v>423.76</v>
       </c>
-      <c r="F121" s="31" t="n">
+      <c r="F122" s="31" t="n">
         <v>23.75</v>
       </c>
-      <c r="G121" s="30" t="n">
+      <c r="G122" s="30" t="n">
         <v>1.5382</v>
       </c>
-      <c r="H121" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-23</t>
-        </is>
-      </c>
-      <c r="I121" s="30" t="n">
-        <v>1.4542</v>
-      </c>
-      <c r="J121" s="33" t="n">
-        <v>-0.0546</v>
-      </c>
-      <c r="K121" s="8" t="n">
-        <v>-23.14</v>
-      </c>
-      <c r="L121" s="32" t="inlineStr">
-        <is>
-          <t>2020-01-31 16:00</t>
-        </is>
-      </c>
-      <c r="M121" s="32" t="inlineStr">
+      <c r="H122" s="32" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="I122" s="30" t="n">
+        <v>1.4638</v>
+      </c>
+      <c r="J122" s="33" t="n">
+        <v>-0.0484</v>
+      </c>
+      <c r="K122" s="8" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="L122" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-03 10:29</t>
+        </is>
+      </c>
+      <c r="M122" s="32" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N121" s="32" t="inlineStr">
+      <c r="N122" s="32" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O121" s="32" t="inlineStr">
+      <c r="O122" s="32" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P121" s="32" t="inlineStr">
+      <c r="P122" s="32" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q121" s="32" t="inlineStr">
+      <c r="Q122" s="32" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>

--- a/scripts/output/202002/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202002/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="14.4" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="14.4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1534,13 +1534,13 @@
         <v>35500</v>
       </c>
       <c r="E16" s="18" t="n">
-        <v>11910.25</v>
+        <v>12851</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>-869.75</v>
+        <v>71</v>
       </c>
       <c r="G16" s="17" t="n">
-        <v>0.3355</v>
+        <v>0.362</v>
       </c>
       <c r="H16" s="19" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>0.0276</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1295.75</v>
+        <v>355</v>
       </c>
       <c r="L16" s="19" t="inlineStr">
         <is>
@@ -1603,13 +1603,13 @@
         <v>2700</v>
       </c>
       <c r="E17" s="18" t="n">
-        <v>7573.5</v>
+        <v>7562.7</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>1263.6</v>
+        <v>1252.8</v>
       </c>
       <c r="G17" s="17" t="n">
-        <v>2.805</v>
+        <v>2.801</v>
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>0.0146</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>99.90000000000001</v>
+        <v>110.7</v>
       </c>
       <c r="L17" s="19" t="inlineStr">
         <is>
@@ -1672,13 +1672,13 @@
         <v>9100</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>34774.74</v>
+        <v>34643.7</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>3407.04</v>
+        <v>3276</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>3.8214</v>
+        <v>3.807</v>
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>0.0236</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>687.96</v>
+        <v>819</v>
       </c>
       <c r="L18" s="19" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         <v>38800</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>215200.32</v>
+        <v>215184.8</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>-2118.48</v>
+        <v>-2134</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>5.5464</v>
+        <v>5.546</v>
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>0.0298</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>6386.48</v>
+        <v>6402</v>
       </c>
       <c r="L19" s="19" t="inlineStr">
         <is>
@@ -1810,13 +1810,13 @@
         <v>33800</v>
       </c>
       <c r="E20" s="18" t="n">
-        <v>26478.92</v>
+        <v>26533</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>-3163.68</v>
+        <v>-3109.6</v>
       </c>
       <c r="G20" s="17" t="n">
-        <v>0.7834</v>
+        <v>0.785</v>
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>0.0255</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>730.08</v>
+        <v>676</v>
       </c>
       <c r="L20" s="19" t="inlineStr">
         <is>
@@ -1879,13 +1879,13 @@
         <v>32700</v>
       </c>
       <c r="E21" s="18" t="n">
-        <v>29541.18</v>
+        <v>29593.5</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>3937.08</v>
+        <v>3989.4</v>
       </c>
       <c r="G21" s="17" t="n">
-        <v>0.9034</v>
+        <v>0.905</v>
       </c>
       <c r="H21" s="19" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>0.0254</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>804.42</v>
+        <v>752.1</v>
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
@@ -1948,13 +1948,13 @@
         <v>34100</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>29022.51</v>
+        <v>28950.9</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>-610.39</v>
+        <v>-682</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>0.8511</v>
+        <v>0.849</v>
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>0.0707</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>1974.39</v>
+        <v>2046</v>
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
         <v>4500</v>
       </c>
       <c r="E23" s="18" t="n">
-        <v>15617.25</v>
+        <v>15610.5</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>2765.25</v>
+        <v>2758.5</v>
       </c>
       <c r="G23" s="17" t="n">
-        <v>3.4705</v>
+        <v>3.469</v>
       </c>
       <c r="H23" s="19" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>-0.0049</v>
       </c>
       <c r="K23" s="21" t="n">
-        <v>-83.25</v>
+        <v>-76.5</v>
       </c>
       <c r="L23" s="19" t="inlineStr">
         <is>
@@ -2086,13 +2086,13 @@
         <v>9200</v>
       </c>
       <c r="E24" s="18" t="n">
-        <v>17155.24</v>
+        <v>17213.2</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>4284.44</v>
+        <v>4342.4</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>1.8647</v>
+        <v>1.871</v>
       </c>
       <c r="H24" s="19" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>0.0315</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>600.76</v>
+        <v>542.8</v>
       </c>
       <c r="L24" s="19" t="inlineStr">
         <is>
@@ -2155,13 +2155,13 @@
         <v>14400</v>
       </c>
       <c r="E25" s="18" t="n">
-        <v>21690.72</v>
+        <v>21686.4</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>3388.32</v>
+        <v>3384</v>
       </c>
       <c r="G25" s="17" t="n">
-        <v>1.5063</v>
+        <v>1.506</v>
       </c>
       <c r="H25" s="19" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>0.0359</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>773.28</v>
+        <v>777.6</v>
       </c>
       <c r="L25" s="19" t="inlineStr">
         <is>
@@ -2914,13 +2914,13 @@
         <v>5299.96</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>1778.14</v>
+        <v>1918.59</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>-222.6</v>
+        <v>-82.15000000000001</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>0.3355</v>
+        <v>0.362</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>0.0276</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>193.45</v>
+        <v>53</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
@@ -3742,13 +3742,13 @@
         <v>4757.9</v>
       </c>
       <c r="E48" s="25" t="n">
-        <v>1596.28</v>
+        <v>1722.36</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>-403.95</v>
+        <v>-277.86</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>0.3355</v>
+        <v>0.362</v>
       </c>
       <c r="H48" s="26" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>0.0276</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>173.66</v>
+        <v>47.58</v>
       </c>
       <c r="L48" s="26" t="inlineStr">
         <is>
@@ -4639,13 +4639,13 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>12503.23</v>
+        <v>13490.82</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>-6696.96</v>
+        <v>-5709.37</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.3355</v>
+        <v>0.362</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>0.0276</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>1360.26</v>
+        <v>372.67</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
@@ -8572,13 +8572,13 @@
         <v>3350.7</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>1124.16</v>
+        <v>1212.95</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>-476.13</v>
+        <v>-387.34</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.3355</v>
+        <v>0.362</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>0.0276</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>122.3</v>
+        <v>33.51</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
@@ -9109,6 +9109,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/202002/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202002/全家/全家整体收益估算.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,26 +1590,26 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>50ETF</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="B17" s="16" t="n">
-        <v>510050</v>
+        <v>515180</v>
       </c>
       <c r="C17" s="17" t="n">
-        <v>2.337</v>
+        <v>0.906</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>2700</v>
       </c>
       <c r="E17" s="18" t="n">
-        <v>7562.7</v>
+        <v>2538</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>1252.8</v>
+        <v>91.8</v>
       </c>
       <c r="G17" s="17" t="n">
-        <v>2.801</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H17" s="19" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="I17" s="17" t="n">
-        <v>2.842</v>
+        <v>0.952</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>0.0146</v>
+        <v>0.0128</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>110.7</v>
+        <v>32.4</v>
       </c>
       <c r="L17" s="19" t="inlineStr">
         <is>
@@ -1637,48 +1637,48 @@
       </c>
       <c r="N17" s="19" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O17" s="19" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P17" s="19" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q17" s="19" t="inlineStr">
         <is>
-          <t>华泰证券</t>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B18" s="16" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C18" s="17" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D18" s="18" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>34643.7</v>
+        <v>7562.7</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>3276</v>
+        <v>1252.8</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>3.807</v>
+        <v>2.801</v>
       </c>
       <c r="H18" s="19" t="inlineStr">
         <is>
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="I18" s="17" t="n">
-        <v>3.897</v>
+        <v>2.842</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.0236</v>
+        <v>0.0146</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>819</v>
+        <v>110.7</v>
       </c>
       <c r="L18" s="19" t="inlineStr">
         <is>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="O18" s="19" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P18" s="19" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q18" s="19" t="inlineStr">
@@ -1728,26 +1728,26 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B19" s="16" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C19" s="17" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D19" s="18" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>215184.8</v>
+        <v>34643.7</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>-2134</v>
+        <v>3276</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>5.546</v>
+        <v>3.807</v>
       </c>
       <c r="H19" s="19" t="inlineStr">
         <is>
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="I19" s="17" t="n">
-        <v>5.711</v>
+        <v>3.897</v>
       </c>
       <c r="J19" s="20" t="n">
-        <v>0.0298</v>
+        <v>0.0236</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>6402</v>
+        <v>819</v>
       </c>
       <c r="L19" s="19" t="inlineStr">
         <is>
@@ -1775,17 +1775,17 @@
       </c>
       <c r="N19" s="19" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O19" s="19" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P19" s="19" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q19" s="19" t="inlineStr">
@@ -1797,26 +1797,26 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B20" s="16" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C20" s="17" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D20" s="18" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E20" s="18" t="n">
-        <v>26533</v>
+        <v>215184.8</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>-3109.6</v>
+        <v>-2134</v>
       </c>
       <c r="G20" s="17" t="n">
-        <v>0.785</v>
+        <v>5.546</v>
       </c>
       <c r="H20" s="19" t="inlineStr">
         <is>
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="I20" s="17" t="n">
-        <v>0.805</v>
+        <v>5.711</v>
       </c>
       <c r="J20" s="20" t="n">
-        <v>0.0255</v>
+        <v>0.0298</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>676</v>
+        <v>6402</v>
       </c>
       <c r="L20" s="19" t="inlineStr">
         <is>
@@ -1844,17 +1844,17 @@
       </c>
       <c r="N20" s="19" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O20" s="19" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P20" s="19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q20" s="19" t="inlineStr">
@@ -1866,26 +1866,26 @@
     <row r="21">
       <c r="A21" s="15" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B21" s="16" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C21" s="17" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D21" s="18" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E21" s="18" t="n">
-        <v>29593.5</v>
+        <v>26533</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>3989.4</v>
+        <v>-3109.6</v>
       </c>
       <c r="G21" s="17" t="n">
-        <v>0.905</v>
+        <v>0.785</v>
       </c>
       <c r="H21" s="19" t="inlineStr">
         <is>
@@ -1893,13 +1893,13 @@
         </is>
       </c>
       <c r="I21" s="17" t="n">
-        <v>0.928</v>
+        <v>0.805</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>0.0254</v>
+        <v>0.0255</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>752.1</v>
+        <v>676</v>
       </c>
       <c r="L21" s="19" t="inlineStr">
         <is>
@@ -1918,12 +1918,12 @@
       </c>
       <c r="O21" s="19" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P21" s="19" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q21" s="19" t="inlineStr">
@@ -1935,26 +1935,26 @@
     <row r="22">
       <c r="A22" s="15" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B22" s="16" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C22" s="17" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D22" s="18" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>28950.9</v>
+        <v>29593.5</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>-682</v>
+        <v>3989.4</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>0.849</v>
+        <v>0.905</v>
       </c>
       <c r="H22" s="19" t="inlineStr">
         <is>
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="I22" s="17" t="n">
-        <v>0.909</v>
+        <v>0.928</v>
       </c>
       <c r="J22" s="20" t="n">
-        <v>0.0707</v>
+        <v>0.0254</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>2046</v>
+        <v>752.1</v>
       </c>
       <c r="L22" s="19" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="O22" s="19" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P22" s="19" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q22" s="19" t="inlineStr">
@@ -2004,26 +2004,26 @@
     <row r="23">
       <c r="A23" s="15" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B23" s="16" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C23" s="17" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D23" s="18" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E23" s="18" t="n">
-        <v>15610.5</v>
+        <v>28950.9</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>2758.5</v>
+        <v>-682</v>
       </c>
       <c r="G23" s="17" t="n">
-        <v>3.469</v>
+        <v>0.849</v>
       </c>
       <c r="H23" s="19" t="inlineStr">
         <is>
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="I23" s="17" t="n">
-        <v>3.452</v>
+        <v>0.909</v>
       </c>
       <c r="J23" s="20" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K23" s="21" t="n">
-        <v>-76.5</v>
+        <v>0.0707</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>2046</v>
       </c>
       <c r="L23" s="19" t="inlineStr">
         <is>
@@ -2046,22 +2046,22 @@
       </c>
       <c r="M23" s="19" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N23" s="19" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O23" s="19" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P23" s="19" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q23" s="19" t="inlineStr">
@@ -2073,26 +2073,26 @@
     <row r="24">
       <c r="A24" s="15" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B24" s="16" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C24" s="17" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D24" s="18" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E24" s="18" t="n">
-        <v>17213.2</v>
+        <v>15610.5</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>4342.4</v>
+        <v>2758.5</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>1.871</v>
+        <v>3.469</v>
       </c>
       <c r="H24" s="19" t="inlineStr">
         <is>
@@ -2100,37 +2100,37 @@
         </is>
       </c>
       <c r="I24" s="17" t="n">
-        <v>1.93</v>
+        <v>3.452</v>
       </c>
       <c r="J24" s="20" t="n">
-        <v>0.0315</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>542.8</v>
+        <v>-0.0049</v>
+      </c>
+      <c r="K24" s="21" t="n">
+        <v>-76.5</v>
       </c>
       <c r="L24" s="19" t="inlineStr">
         <is>
-          <t>2020-02-06 15:04</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M24" s="19" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N24" s="19" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O24" s="19" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P24" s="19" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q24" s="19" t="inlineStr">
@@ -2142,164 +2142,164 @@
     <row r="25">
       <c r="A25" s="15" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B25" s="16" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D25" s="18" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>17213.2</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>4342.4</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="H25" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I25" s="17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J25" s="20" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>542.8</v>
+      </c>
+      <c r="L25" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:04</t>
+        </is>
+      </c>
+      <c r="M25" s="19" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N25" s="19" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O25" s="19" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="P25" s="19" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="Q25" s="19" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B26" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C26" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D26" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E26" s="18" t="n">
         <v>21686.4</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F26" s="18" t="n">
         <v>3384</v>
       </c>
-      <c r="G25" s="17" t="n">
+      <c r="G26" s="17" t="n">
         <v>1.506</v>
       </c>
-      <c r="H25" s="19" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I25" s="17" t="n">
+      <c r="H26" s="19" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I26" s="17" t="n">
         <v>1.56</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J26" s="20" t="n">
         <v>0.0359</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K26" s="8" t="n">
         <v>777.6</v>
       </c>
-      <c r="L25" s="19" t="inlineStr">
+      <c r="L26" s="19" t="inlineStr">
         <is>
           <t>2020-02-06 15:04</t>
         </is>
       </c>
-      <c r="M25" s="19" t="inlineStr">
+      <c r="M26" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N25" s="19" t="inlineStr">
+      <c r="N26" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O25" s="19" t="inlineStr">
+      <c r="O26" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P25" s="19" t="inlineStr">
+      <c r="P26" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q25" s="19" t="inlineStr">
+      <c r="Q26" s="19" t="inlineStr">
         <is>
           <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B26" s="23" t="n">
-        <v>478</v>
-      </c>
-      <c r="C26" s="24" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D26" s="25" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E26" s="25" t="n">
-        <v>8169.53</v>
-      </c>
-      <c r="F26" s="25" t="n">
-        <v>165.47</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>1.965</v>
-      </c>
-      <c r="H26" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>2.0229</v>
-      </c>
-      <c r="J26" s="27" t="n">
-        <v>0.0295</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>240.72</v>
-      </c>
-      <c r="L26" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M26" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N26" s="26" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O26" s="26" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P26" s="26" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q26" s="26" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>5703.9</v>
+        <v>8169.53</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>367.49</v>
+        <v>165.47</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.5867</v>
+        <v>1.965</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.6</v>
+        <v>2.0229</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0227</v>
+        <v>0.0295</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>129.3</v>
+        <v>240.72</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
@@ -2327,17 +2327,17 @@
       </c>
       <c r="N27" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O27" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P27" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q27" s="26" t="inlineStr">
@@ -2349,26 +2349,26 @@
     <row r="28">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B28" s="23" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C28" s="24" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D28" s="25" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4924.18</v>
+        <v>5703.9</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>255.11</v>
+        <v>367.49</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.996</v>
+        <v>0.5867</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.0305</v>
+        <v>0.6</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0347</v>
+        <v>0.0227</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>170.57</v>
+        <v>129.3</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O28" s="26" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P28" s="26" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q28" s="26" t="inlineStr">
@@ -2418,26 +2418,26 @@
     <row r="29">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B29" s="23" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C29" s="24" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D29" s="25" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>4184.2</v>
+        <v>4924.18</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>182.27</v>
+        <v>255.11</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
@@ -2445,13 +2445,13 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.5837</v>
+        <v>1.0305</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0295</v>
+        <v>0.0347</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>123.24</v>
+        <v>170.57</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="N29" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O29" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P29" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q29" s="26" t="inlineStr">
@@ -2487,26 +2487,26 @@
     <row r="30">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="23" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C30" s="24" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D30" s="25" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>3910.57</v>
+        <v>4184.2</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>-91.26000000000001</v>
+        <v>182.27</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.067</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
@@ -2514,13 +2514,13 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.0797</v>
+        <v>0.5837</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0119</v>
+        <v>0.0295</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>46.55</v>
+        <v>123.24</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="N30" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O30" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P30" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q30" s="26" t="inlineStr">
@@ -2556,26 +2556,26 @@
     <row r="31">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B31" s="23" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>3855.68</v>
+        <v>3910.57</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>520.58</v>
+        <v>-91.26000000000001</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.067</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.8942</v>
+        <v>1.0797</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0554</v>
+        <v>0.0119</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>213.42</v>
+        <v>46.55</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
@@ -2603,17 +2603,17 @@
       </c>
       <c r="N31" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O31" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P31" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q31" s="26" t="inlineStr">
@@ -2625,26 +2625,26 @@
     <row r="32">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="23" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C32" s="24" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>795.77</v>
+        <v>3855.68</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>128.76</v>
+        <v>520.58</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>1.9863</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>2.0569</v>
+        <v>0.8942</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0355</v>
+        <v>0.0554</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>28.28</v>
+        <v>213.42</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
@@ -2672,17 +2672,17 @@
       </c>
       <c r="N32" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O32" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P32" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q32" s="26" t="inlineStr">
@@ -2694,26 +2694,26 @@
     <row r="33">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C33" s="24" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D33" s="25" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>791.38</v>
+        <v>795.77</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>124.36</v>
+        <v>128.76</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.0748</v>
+        <v>1.9863</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.113</v>
+        <v>2.0569</v>
       </c>
       <c r="J33" s="27" t="n">
         <v>0.0355</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>28.13</v>
+        <v>28.28</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
@@ -2763,26 +2763,26 @@
     <row r="34">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
-        <v>1180</v>
+        <v>3765</v>
       </c>
       <c r="C34" s="24" t="n">
-        <v>0.8242</v>
+        <v>0.9059</v>
       </c>
       <c r="D34" s="25" t="n">
-        <v>809.28</v>
+        <v>736.3</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>754.8200000000001</v>
+        <v>791.38</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>87.81</v>
+        <v>124.36</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.9327</v>
+        <v>1.0748</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
@@ -2790,13 +2790,13 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>0.9634</v>
+        <v>1.113</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.033</v>
+        <v>0.0355</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>24.84</v>
+        <v>28.13</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
@@ -2810,17 +2810,17 @@
       </c>
       <c r="N34" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O34" s="26" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P34" s="26" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q34" s="26" t="inlineStr">
@@ -2832,26 +2832,26 @@
     <row r="35">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>502010</v>
+        <v>1180</v>
       </c>
       <c r="C35" s="24" t="n">
-        <v>0.9853</v>
+        <v>0.8242</v>
       </c>
       <c r="D35" s="25" t="n">
-        <v>473.85</v>
+        <v>809.28</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>463.71</v>
+        <v>754.8200000000001</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>-3.17</v>
+        <v>87.81</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>0.9786</v>
+        <v>0.9327</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.004</v>
+        <v>0.9634</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0259</v>
+        <v>0.033</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>12.04</v>
+        <v>24.84</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="O35" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P35" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q35" s="26" t="inlineStr">
@@ -2901,64 +2901,64 @@
     <row r="36">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C36" s="24" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D36" s="25" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>1918.59</v>
+        <v>463.71</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>-82.15000000000001</v>
+        <v>-3.17</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>0.362</v>
+        <v>0.9786</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>0.372</v>
+        <v>1.004</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0276</v>
+        <v>0.0259</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>53</v>
+        <v>12.04</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 15:04</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N36" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O36" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P36" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q36" s="26" t="inlineStr">
@@ -2970,26 +2970,26 @@
     <row r="37">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B37" s="23" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C37" s="24" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D37" s="25" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>825.4</v>
+        <v>1918.59</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>158.39</v>
+        <v>-82.15000000000001</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.431</v>
+        <v>0.362</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
@@ -2997,37 +2997,37 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.4481</v>
+        <v>0.372</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0119</v>
+        <v>0.0276</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>9.859999999999999</v>
+        <v>53</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 05:00</t>
+          <t>2020-02-06 15:04</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N37" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O37" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P37" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q37" s="26" t="inlineStr">
@@ -3039,44 +3039,44 @@
     <row r="38">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B38" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C38" s="24" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>689.41</v>
+        <v>825.4</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>22.43</v>
+        <v>158.39</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.4998</v>
+        <v>1.431</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.5374</v>
+        <v>1.4481</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0251</v>
+        <v>0.0119</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>17.28</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 16:00</t>
+          <t>2020-02-06 05:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="N38" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O38" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P38" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q38" s="26" t="inlineStr">
@@ -3108,64 +3108,64 @@
     <row r="39">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B39" s="23" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C39" s="24" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>734.71</v>
+        <v>689.41</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>67.72</v>
+        <v>22.43</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.201</v>
+        <v>1.4998</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0</v>
+        <v>1.5374</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0</v>
+        <v>0.0251</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>0</v>
+        <v>17.28</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-06 16:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N39" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O39" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P39" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q39" s="26" t="inlineStr">
@@ -3177,95 +3177,95 @@
     <row r="40">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B40" s="23" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C40" s="24" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>2056.82</v>
+        <v>734.71</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>56.84</v>
+        <v>67.72</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>1.965</v>
+        <v>1.201</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>2.0229</v>
+        <v>0</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>60.61</v>
+        <v>0</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N40" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O40" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P40" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q40" s="26" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1948.24</v>
+        <v>2056.82</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>-51.86</v>
+        <v>56.84</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.067</v>
+        <v>1.965</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
@@ -3273,13 +3273,13 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.0797</v>
+        <v>2.0229</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0119</v>
+        <v>0.0295</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>23.19</v>
+        <v>60.61</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
@@ -3293,17 +3293,17 @@
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,26 +3315,26 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>1052</v>
+        <v>100032</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>0.5517</v>
+        <v>1.0954</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>1812.7</v>
+        <v>1825.9</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1027.8</v>
+        <v>1948.24</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>27.73</v>
+        <v>-51.86</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>0.5669999999999999</v>
+        <v>1.067</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>0.5837</v>
+        <v>1.0797</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0295</v>
+        <v>0.0119</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>30.27</v>
+        <v>23.19</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,26 +3384,26 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1039.66</v>
+        <v>1027.8</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>39.63</v>
+        <v>27.73</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>0.8473000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>0.8942</v>
+        <v>0.5837</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0554</v>
+        <v>0.0295</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>57.55</v>
+        <v>30.27</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
@@ -3431,17 +3431,17 @@
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3453,26 +3453,26 @@
     <row r="44">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="23" t="n">
-        <v>1051</v>
+        <v>4752</v>
       </c>
       <c r="C44" s="24" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D44" s="25" t="n">
-        <v>1059.17</v>
+        <v>1227.03</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1021.04</v>
+        <v>1039.66</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>21.08</v>
+        <v>39.63</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.964</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.9776</v>
+        <v>0.8942</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0142</v>
+        <v>0.0554</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>14.4</v>
+        <v>57.55</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
@@ -3500,17 +3500,17 @@
       </c>
       <c r="N44" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O44" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P44" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q44" s="26" t="inlineStr">
@@ -3522,64 +3522,64 @@
     <row r="45">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="23" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C45" s="24" t="n">
-        <v>1.1113</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D45" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>1059.17</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1287.64</v>
+        <v>1021.04</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>287.67</v>
+        <v>21.08</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.431</v>
+        <v>0.964</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>1.4481</v>
+        <v>0.9776</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0119</v>
+        <v>0.0142</v>
       </c>
       <c r="K45" s="8" t="n">
-        <v>15.39</v>
+        <v>14.4</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 05:00</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N45" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O45" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P45" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q45" s="26" t="inlineStr">
@@ -3591,44 +3591,44 @@
     <row r="46">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B46" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C46" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D46" s="25" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1033.39</v>
+        <v>1287.64</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>33.42</v>
+        <v>287.67</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.4998</v>
+        <v>1.431</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.5374</v>
+        <v>1.4481</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0251</v>
+        <v>0.0119</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>25.91</v>
+        <v>15.39</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 16:00</t>
+          <t>2020-02-06 05:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3638,17 +3638,17 @@
       </c>
       <c r="N46" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O46" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P46" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q46" s="26" t="inlineStr">
@@ -3660,26 +3660,26 @@
     <row r="47">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="23" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C47" s="24" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D47" s="25" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>2358.58</v>
+        <v>1033.39</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>358.64</v>
+        <v>33.42</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.2857</v>
+        <v>1.4998</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
@@ -3687,37 +3687,37 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.2773</v>
+        <v>1.5374</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>-0.0066</v>
-      </c>
-      <c r="K47" s="21" t="n">
-        <v>-15.41</v>
+        <v>0.0251</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>25.91</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 15:30</t>
+          <t>2020-02-06 16:00</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N47" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O47" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P47" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q47" s="26" t="inlineStr">
@@ -3729,44 +3729,44 @@
     <row r="48">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="23" t="n">
-        <v>162411</v>
+        <v>216</v>
       </c>
       <c r="C48" s="24" t="n">
-        <v>0.4204</v>
+        <v>1.0902</v>
       </c>
       <c r="D48" s="25" t="n">
-        <v>4757.9</v>
+        <v>1834.47</v>
       </c>
       <c r="E48" s="25" t="n">
-        <v>1722.36</v>
+        <v>2358.58</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>-277.86</v>
+        <v>358.64</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>0.362</v>
+        <v>1.2857</v>
       </c>
       <c r="H48" s="26" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I48" s="24" t="n">
-        <v>0.372</v>
+        <v>1.2773</v>
       </c>
       <c r="J48" s="27" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>47.58</v>
+        <v>-0.0066</v>
+      </c>
+      <c r="K48" s="21" t="n">
+        <v>-15.41</v>
       </c>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>2020-02-06 15:04</t>
+          <t>2020-02-06 15:30</t>
         </is>
       </c>
       <c r="M48" s="26" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="O48" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P48" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q48" s="26" t="inlineStr">
@@ -3798,26 +3798,26 @@
     <row r="49">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B49" s="23" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C49" s="24" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D49" s="25" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E49" s="25" t="n">
-        <v>1145.71</v>
+        <v>1722.36</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>145.67</v>
+        <v>-277.86</v>
       </c>
       <c r="G49" s="24" t="n">
-        <v>1.201</v>
+        <v>0.362</v>
       </c>
       <c r="H49" s="26" t="inlineStr">
         <is>
@@ -3825,37 +3825,37 @@
         </is>
       </c>
       <c r="I49" s="24" t="n">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="J49" s="27" t="n">
-        <v>0</v>
+        <v>0.0276</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>0</v>
+        <v>47.58</v>
       </c>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-06 15:04</t>
         </is>
       </c>
       <c r="M49" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N49" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O49" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P49" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q49" s="26" t="inlineStr">
@@ -3867,164 +3867,164 @@
     <row r="50">
       <c r="A50" s="22" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B50" s="23" t="n">
+        <v>614</v>
+      </c>
+      <c r="C50" s="24" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D50" s="25" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E50" s="25" t="n">
+        <v>1145.71</v>
+      </c>
+      <c r="F50" s="25" t="n">
+        <v>145.67</v>
+      </c>
+      <c r="G50" s="24" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="H50" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-04</t>
+        </is>
+      </c>
+      <c r="I50" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M50" s="26" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="N50" s="26" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="O50" s="26" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="P50" s="26" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="Q50" s="26" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="22" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B50" s="23" t="n">
+      <c r="B51" s="23" t="n">
         <v>110027</v>
       </c>
-      <c r="C50" s="24" t="n">
+      <c r="C51" s="24" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D51" s="25" t="n">
         <v>595.47</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E51" s="25" t="n">
         <v>1049.81</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F51" s="25" t="n">
         <v>49.84</v>
       </c>
-      <c r="G50" s="24" t="n">
+      <c r="G51" s="24" t="n">
         <v>1.763</v>
       </c>
-      <c r="H50" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I50" s="24" t="n">
+      <c r="H51" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I51" s="24" t="n">
         <v>1.7753</v>
       </c>
-      <c r="J50" s="27" t="n">
+      <c r="J51" s="27" t="n">
         <v>0.007</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K51" s="8" t="n">
         <v>7.32</v>
       </c>
-      <c r="L50" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M50" s="26" t="inlineStr">
+      <c r="L51" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M51" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N50" s="26" t="inlineStr">
+      <c r="N51" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O50" s="26" t="inlineStr">
+      <c r="O51" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P50" s="26" t="inlineStr">
+      <c r="P51" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q50" s="26" t="inlineStr">
+      <c r="Q51" s="26" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B51" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C51" s="30" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D51" s="31" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E51" s="31" t="n">
-        <v>69423.64</v>
-      </c>
-      <c r="F51" s="31" t="n">
-        <v>3103.57</v>
-      </c>
-      <c r="G51" s="30" t="n">
-        <v>1.067</v>
-      </c>
-      <c r="H51" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I51" s="30" t="n">
-        <v>1.0797</v>
-      </c>
-      <c r="J51" s="33" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>826.3200000000001</v>
-      </c>
-      <c r="L51" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M51" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N51" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O51" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P51" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q51" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B52" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C52" s="30" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D52" s="31" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>63236.04</v>
+        <v>69423.64</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5034.76</v>
+        <v>3103.57</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.996</v>
+        <v>1.067</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.0305</v>
+        <v>1.0797</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0347</v>
+        <v>0.0119</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>2190.4</v>
+        <v>826.3200000000001</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
@@ -4052,17 +4052,17 @@
       </c>
       <c r="N52" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O52" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P52" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q52" s="32" t="inlineStr">
@@ -4074,26 +4074,26 @@
     <row r="53">
       <c r="A53" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B53" s="29" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C53" s="30" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D53" s="31" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>38918.8</v>
+        <v>63236.04</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>6917.53</v>
+        <v>5034.76</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.2023</v>
+        <v>0.996</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
@@ -4101,13 +4101,13 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.2116</v>
+        <v>1.0305</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0077</v>
+        <v>0.0347</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>301.04</v>
+        <v>2190.4</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
@@ -4116,22 +4116,22 @@
       </c>
       <c r="M53" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N53" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O53" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P53" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q53" s="32" t="inlineStr">
@@ -4143,26 +4143,26 @@
     <row r="54">
       <c r="A54" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B54" s="29" t="n">
-        <v>1180</v>
+        <v>340001</v>
       </c>
       <c r="C54" s="30" t="n">
-        <v>0.7451</v>
+        <v>0.9886</v>
       </c>
       <c r="D54" s="31" t="n">
-        <v>41014.88</v>
+        <v>32370.29</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>38254.58</v>
+        <v>38918.8</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>7694.39</v>
+        <v>6917.53</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>0.9327</v>
+        <v>1.2023</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
@@ -4170,13 +4170,13 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>0.9634</v>
+        <v>1.2116</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.033</v>
+        <v>0.0077</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>1259.16</v>
+        <v>301.04</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
@@ -4185,22 +4185,22 @@
       </c>
       <c r="M54" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N54" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O54" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P54" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q54" s="32" t="inlineStr">
@@ -4212,26 +4212,26 @@
     <row r="55">
       <c r="A55" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B55" s="29" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C55" s="30" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D55" s="31" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>35412.73</v>
+        <v>38254.58</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>3412.72</v>
+        <v>7694.39</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.763</v>
+        <v>0.9327</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
@@ -4239,13 +4239,13 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.7753</v>
+        <v>0.9634</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.007</v>
+        <v>0.033</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>247.07</v>
+        <v>1259.16</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
@@ -4254,22 +4254,22 @@
       </c>
       <c r="M55" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N55" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O55" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P55" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q55" s="32" t="inlineStr">
@@ -4281,64 +4281,64 @@
     <row r="56">
       <c r="A56" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B56" s="29" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C56" s="30" t="n">
-        <v>1.091</v>
+        <v>1.5931</v>
       </c>
       <c r="D56" s="31" t="n">
-        <v>20716.63</v>
+        <v>20086.63</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>24880.67</v>
+        <v>35412.73</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2278.83</v>
+        <v>3412.72</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.201</v>
+        <v>1.763</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0</v>
+        <v>1.7753</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>0</v>
+        <v>247.07</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N56" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O56" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P56" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q56" s="32" t="inlineStr">
@@ -4350,64 +4350,64 @@
     <row r="57">
       <c r="A57" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B57" s="29" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C57" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D57" s="31" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>23340.88</v>
+        <v>24880.67</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>4140.23</v>
+        <v>2278.83</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.596</v>
+        <v>1.201</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6242</v>
+        <v>0</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0177</v>
+        <v>0</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>412.41</v>
+        <v>0</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N57" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O57" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P57" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q57" s="32" t="inlineStr">
@@ -4419,64 +4419,64 @@
     <row r="58">
       <c r="A58" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B58" s="29" t="n">
-        <v>164906</v>
+        <v>100038</v>
       </c>
       <c r="C58" s="30" t="n">
-        <v>1.1444</v>
+        <v>1.3129</v>
       </c>
       <c r="D58" s="31" t="n">
-        <v>16778.47</v>
+        <v>14624.61</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>24009.99</v>
+        <v>23340.88</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>4808.71</v>
+        <v>4140.23</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.431</v>
+        <v>1.596</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4481</v>
+        <v>1.6242</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0119</v>
+        <v>0.0177</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>286.91</v>
+        <v>412.41</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 05:00</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N58" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O58" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P58" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q58" s="32" t="inlineStr">
@@ -4488,64 +4488,64 @@
     <row r="59">
       <c r="A59" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B59" s="29" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C59" s="30" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D59" s="31" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>21824.24</v>
+        <v>24009.99</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2622.21</v>
+        <v>4808.71</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.0312</v>
+        <v>1.431</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.0442</v>
+        <v>1.4481</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0126</v>
+        <v>0.0119</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>275.13</v>
+        <v>286.91</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 05:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N59" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O59" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P59" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q59" s="32" t="inlineStr">
@@ -4557,26 +4557,26 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>161017</v>
+        <v>1469</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>1.3432</v>
+        <v>0.9073</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>9529.809999999999</v>
+        <v>21163.93</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>16029.14</v>
+        <v>21824.24</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>3228.7</v>
+        <v>2622.21</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.682</v>
+        <v>1.0312</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
@@ -4584,13 +4584,13 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.7315</v>
+        <v>1.0442</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0295</v>
+        <v>0.0126</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>471.73</v>
+        <v>275.13</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
@@ -4604,17 +4604,17 @@
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,64 +4626,64 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>13490.82</v>
+        <v>16029.14</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>-5709.37</v>
+        <v>3228.7</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.362</v>
+        <v>1.682</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.372</v>
+        <v>1.7315</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0276</v>
+        <v>0.0295</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>372.67</v>
+        <v>471.73</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:04</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4695,64 +4695,64 @@
     <row r="62">
       <c r="A62" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B62" s="29" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C62" s="30" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D62" s="31" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>10196.42</v>
+        <v>13490.82</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>296.42</v>
+        <v>-5709.37</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4998</v>
+        <v>0.362</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.5374</v>
+        <v>0.372</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0251</v>
+        <v>0.0276</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>255.62</v>
+        <v>372.67</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 16:00</t>
+          <t>2020-02-06 15:04</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N62" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O62" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P62" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q62" s="32" t="inlineStr">
@@ -4764,26 +4764,26 @@
     <row r="63">
       <c r="A63" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B63" s="29" t="n">
-        <v>1064</v>
+        <v>71</v>
       </c>
       <c r="C63" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.4562</v>
       </c>
       <c r="D63" s="31" t="n">
-        <v>13403.92</v>
+        <v>6798.52</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>7864.08</v>
+        <v>10196.42</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>1463.71</v>
+        <v>296.42</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.5867</v>
+        <v>1.4998</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
@@ -4791,37 +4791,37 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.6</v>
+        <v>1.5374</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0227</v>
+        <v>0.0251</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>178.27</v>
+        <v>255.62</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 16:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N63" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O63" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P63" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q63" s="32" t="inlineStr">
@@ -4833,26 +4833,26 @@
     <row r="64">
       <c r="A64" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C64" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D64" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>7579.43</v>
+        <v>7864.08</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>1179.22</v>
+        <v>1463.71</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>1.4224</v>
+        <v>0.5867</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
@@ -4860,13 +4860,13 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>1.4344</v>
+        <v>0.6</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0227</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>63.94</v>
+        <v>178.27</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
@@ -4875,22 +4875,22 @@
       </c>
       <c r="M64" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N64" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O64" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P64" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q64" s="32" t="inlineStr">
@@ -4902,44 +4902,44 @@
     <row r="65">
       <c r="A65" s="28" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B65" s="29" t="n">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C65" s="30" t="n">
-        <v>0.9172</v>
+        <v>1.2011</v>
       </c>
       <c r="D65" s="31" t="n">
-        <v>5609.79</v>
+        <v>5328.62</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>7679.8</v>
+        <v>7579.43</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>2534.5</v>
+        <v>1179.22</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>1.369</v>
+        <v>1.4224</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0</v>
+        <v>1.4344</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>0</v>
+        <v>63.94</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4949,17 +4949,17 @@
       </c>
       <c r="N65" s="32" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O65" s="32" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P65" s="32" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q65" s="32" t="inlineStr">
@@ -4971,64 +4971,64 @@
     <row r="66">
       <c r="A66" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B66" s="29" t="n">
-        <v>478</v>
+        <v>1061</v>
       </c>
       <c r="C66" s="30" t="n">
-        <v>1.9397</v>
+        <v>0.9172</v>
       </c>
       <c r="D66" s="31" t="n">
-        <v>3299.64</v>
+        <v>5609.79</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>6483.79</v>
+        <v>7679.8</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>83.48</v>
+        <v>2534.5</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>1.965</v>
+        <v>1.369</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>2.0229</v>
+        <v>0</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>191.05</v>
+        <v>0</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N66" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="O66" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="P66" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>521</t>
         </is>
       </c>
       <c r="Q66" s="32" t="inlineStr">
@@ -5040,26 +5040,26 @@
     <row r="67">
       <c r="A67" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B67" s="29" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C67" s="30" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D67" s="31" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E67" s="31" t="n">
-        <v>6653.84</v>
+        <v>6483.79</v>
       </c>
       <c r="F67" s="31" t="n">
-        <v>253.65</v>
+        <v>83.48</v>
       </c>
       <c r="G67" s="30" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.965</v>
       </c>
       <c r="H67" s="32" t="inlineStr">
         <is>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="I67" s="30" t="n">
-        <v>0.8942</v>
+        <v>2.0229</v>
       </c>
       <c r="J67" s="33" t="n">
-        <v>0.0554</v>
+        <v>0.0295</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>368.31</v>
+        <v>191.05</v>
       </c>
       <c r="L67" s="32" t="inlineStr">
         <is>
@@ -5087,17 +5087,17 @@
       </c>
       <c r="N67" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O67" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P67" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q67" s="32" t="inlineStr">
@@ -5109,164 +5109,164 @@
     <row r="68">
       <c r="A68" s="28" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B68" s="29" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C68" s="30" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D68" s="31" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E68" s="31" t="n">
+        <v>6653.84</v>
+      </c>
+      <c r="F68" s="31" t="n">
+        <v>253.65</v>
+      </c>
+      <c r="G68" s="30" t="n">
+        <v>0.8473000000000001</v>
+      </c>
+      <c r="H68" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I68" s="30" t="n">
+        <v>0.8942</v>
+      </c>
+      <c r="J68" s="33" t="n">
+        <v>0.0554</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>368.31</v>
+      </c>
+      <c r="L68" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M68" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N68" s="32" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O68" s="32" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="P68" s="32" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="Q68" s="32" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="28" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B68" s="29" t="n">
+      <c r="B69" s="29" t="n">
         <v>2903</v>
       </c>
-      <c r="C68" s="30" t="n">
+      <c r="C69" s="30" t="n">
         <v>0.8548</v>
       </c>
-      <c r="D68" s="31" t="n">
+      <c r="D69" s="31" t="n">
         <v>3889.32</v>
       </c>
-      <c r="E68" s="31" t="n">
+      <c r="E69" s="31" t="n">
         <v>3475.11</v>
       </c>
-      <c r="F68" s="31" t="n">
+      <c r="F69" s="31" t="n">
         <v>150.52</v>
       </c>
-      <c r="G68" s="30" t="n">
+      <c r="G69" s="30" t="n">
         <v>0.8935</v>
       </c>
-      <c r="H68" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I68" s="30" t="n">
+      <c r="H69" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I69" s="30" t="n">
         <v>0.9198</v>
       </c>
-      <c r="J68" s="33" t="n">
+      <c r="J69" s="33" t="n">
         <v>0.0295</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K69" s="8" t="n">
         <v>102.29</v>
       </c>
-      <c r="L68" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M68" s="32" t="inlineStr">
+      <c r="L69" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M69" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N68" s="32" t="inlineStr">
+      <c r="N69" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O68" s="32" t="inlineStr">
+      <c r="O69" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P68" s="32" t="inlineStr">
+      <c r="P69" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q68" s="32" t="inlineStr">
+      <c r="Q69" s="32" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>1.4347</v>
-      </c>
-      <c r="D69" s="5" t="n">
-        <v>1182.45</v>
-      </c>
-      <c r="E69" s="5" t="n">
-        <v>1623.5</v>
-      </c>
-      <c r="F69" s="5" t="n">
-        <v>-72.95999999999999</v>
-      </c>
-      <c r="G69" s="4" t="n">
-        <v>1.373</v>
-      </c>
-      <c r="H69" s="6" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I69" s="4" t="n">
-        <v>1.3875</v>
-      </c>
-      <c r="J69" s="7" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="K69" s="8" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="L69" s="6" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M69" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N69" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O69" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P69" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q69" s="6" t="inlineStr">
-        <is>
-          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>1.6574</v>
+        <v>1.4347</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>1013.85</v>
+        <v>1182.45</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1581.61</v>
+        <v>1623.5</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>-98.75</v>
+        <v>-72.95999999999999</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>1.56</v>
+        <v>1.373</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
@@ -5274,13 +5274,13 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>1.5785</v>
+        <v>1.3875</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.0105</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>18.76</v>
+        <v>17.15</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
@@ -5294,17 +5294,17 @@
       </c>
       <c r="N70" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O70" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P70" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q70" s="6" t="inlineStr">
@@ -5316,26 +5316,26 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>3318</v>
+        <v>90010</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>0.9386</v>
+        <v>1.6574</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>1548.03</v>
+        <v>1013.85</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>1439.67</v>
+        <v>1581.61</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>-13.31</v>
+        <v>-98.75</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>0.93</v>
+        <v>1.56</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
@@ -5343,13 +5343,13 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9552</v>
+        <v>1.5785</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>0.0271</v>
+        <v>0.0119</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>39.01</v>
+        <v>18.76</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
@@ -5363,17 +5363,17 @@
       </c>
       <c r="N71" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O71" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P71" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q71" s="6" t="inlineStr">
@@ -5385,26 +5385,26 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>1.3485</v>
+        <v>0.9386</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>898.04</v>
+        <v>1548.03</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>1319.22</v>
+        <v>1439.67</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>108.21</v>
+        <v>-13.31</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>1.469</v>
+        <v>0.93</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>1.5054</v>
+        <v>0.9552</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>0.0248</v>
+        <v>0.0271</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>32.69</v>
+        <v>39.01</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2020-02-06 16:00</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N72" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O72" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P72" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q72" s="6" t="inlineStr">
@@ -5454,26 +5454,26 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>1.7966</v>
+        <v>1.3485</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>492.58</v>
+        <v>898.04</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>911.37</v>
+        <v>1319.22</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>26.4</v>
+        <v>108.21</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.8502</v>
+        <v>1.469</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
@@ -5481,37 +5481,37 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.8855</v>
+        <v>1.5054</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0191</v>
+        <v>0.0248</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>17.39</v>
+        <v>32.69</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 16:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N73" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O73" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P73" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q73" s="6" t="inlineStr">
@@ -5523,26 +5523,26 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>2.1277</v>
+        <v>1.7966</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>421.99</v>
+        <v>492.58</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>909.4299999999999</v>
+        <v>911.37</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>11.56</v>
+        <v>26.4</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>2.1551</v>
+        <v>1.8502</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>2.1973</v>
+        <v>1.8855</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0196</v>
+        <v>0.0191</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>17.81</v>
+        <v>17.39</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,26 +5592,26 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>0.9599</v>
+        <v>2.1277</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>390.82</v>
+        <v>421.99</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>389.26</v>
+        <v>909.4299999999999</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>14.11</v>
+        <v>11.56</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>0.996</v>
+        <v>2.1551</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
@@ -5619,13 +5619,13 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.0305</v>
+        <v>2.1973</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0347</v>
+        <v>0.0196</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>13.48</v>
+        <v>17.81</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
@@ -5639,17 +5639,17 @@
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,26 +5661,26 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>200.28</v>
+        <v>389.26</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-10.94</v>
+        <v>14.11</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
@@ -5688,13 +5688,13 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9472</v>
+        <v>1.0305</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0163</v>
+        <v>0.0347</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>3.27</v>
+        <v>13.48</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="N76" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,26 +5730,26 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.2538</v>
+        <v>0.9829</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>171.26</v>
+        <v>214.89</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>197.55</v>
+        <v>200.28</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-17.18</v>
+        <v>-10.94</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.1535</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.161</v>
+        <v>0.9472</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0065</v>
+        <v>0.0163</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>1.28</v>
+        <v>3.27</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,26 +5799,26 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.2538</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>212.74</v>
+        <v>171.26</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>189</v>
+        <v>197.55</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>46.29</v>
+        <v>-17.18</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>0.8884</v>
+        <v>1.1535</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
@@ -5826,13 +5826,13 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>0.9206</v>
+        <v>1.161</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0363</v>
+        <v>0.0065</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>6.85</v>
+        <v>1.28</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,26 +5868,26 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>79.91</v>
+        <v>189</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-0.13</v>
+        <v>46.29</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.287</v>
+        <v>0.8884</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
@@ -5895,13 +5895,13 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.3106</v>
+        <v>0.9206</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0183</v>
+        <v>0.0363</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>1.47</v>
+        <v>6.85</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
@@ -5915,17 +5915,17 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
@@ -5937,26 +5937,26 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.2891</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>25.8</v>
+        <v>62.09</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>33.4</v>
+        <v>79.91</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-3.68</v>
+        <v>-0.13</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.2945</v>
+        <v>1.287</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.3082</v>
+        <v>1.3106</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0105</v>
+        <v>0.0183</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.35</v>
+        <v>1.47</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
@@ -5989,12 +5989,12 @@
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
@@ -6006,26 +6006,26 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>2086</v>
+        <v>310398</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.4372</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>0</v>
+        <v>-3.68</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.2631</v>
+        <v>1.2945</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
@@ -6033,13 +6033,13 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.2635</v>
+        <v>1.3082</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0003</v>
+        <v>0.0105</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
@@ -6048,22 +6048,22 @@
       </c>
       <c r="M81" s="6" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,26 +6075,26 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>90010</v>
+        <v>2086</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>1.6607</v>
+        <v>1.2258</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>1128.82</v>
+        <v>0</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1760.96</v>
+        <v>0</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>-113.67</v>
+        <v>0</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.56</v>
+        <v>1.2631</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.5785</v>
+        <v>1.2635</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.0003</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
@@ -6117,53 +6117,53 @@
       </c>
       <c r="M82" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>511</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉母</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.4346</v>
+        <v>1.6607</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>1225.03</v>
+        <v>1128.82</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1681.97</v>
+        <v>1760.96</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-75.45999999999999</v>
+        <v>-113.67</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.373</v>
+        <v>1.56</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
@@ -6171,13 +6171,13 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3875</v>
+        <v>1.5785</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0105</v>
+        <v>0.0119</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>17.76</v>
+        <v>20.88</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
@@ -6191,17 +6191,17 @@
       </c>
       <c r="N83" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
@@ -6213,26 +6213,26 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>0.9393</v>
+        <v>1.4346</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>1647.71</v>
+        <v>1225.03</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1532.37</v>
+        <v>1681.97</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-15.32</v>
+        <v>-75.45999999999999</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>0.93</v>
+        <v>1.373</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>0.9552</v>
+        <v>1.3875</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0271</v>
+        <v>0.0105</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>41.52</v>
+        <v>17.76</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
@@ -6260,17 +6260,17 @@
       </c>
       <c r="N84" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
@@ -6282,26 +6282,26 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.3514</v>
+        <v>0.9393</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>915.97</v>
+        <v>1647.71</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1345.56</v>
+        <v>1532.37</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>107.72</v>
+        <v>-15.32</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.469</v>
+        <v>0.93</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
@@ -6309,37 +6309,37 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.5054</v>
+        <v>0.9552</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0248</v>
+        <v>0.0271</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>33.34</v>
+        <v>41.52</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2020-02-06 16:00</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N85" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
@@ -6351,26 +6351,26 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>978.74</v>
+        <v>1345.56</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>26.98</v>
+        <v>107.72</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.8502</v>
+        <v>1.469</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
@@ -6378,37 +6378,37 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.8855</v>
+        <v>1.5054</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0191</v>
+        <v>0.0248</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>18.67</v>
+        <v>33.34</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 16:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N86" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,26 +6420,26 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>2.142</v>
+        <v>1.7992</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>451.58</v>
+        <v>528.99</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>973.2</v>
+        <v>978.74</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>5.92</v>
+        <v>26.98</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>2.1551</v>
+        <v>1.8502</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>2.1973</v>
+        <v>1.8855</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0196</v>
+        <v>0.0191</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>19.06</v>
+        <v>18.67</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
@@ -6472,12 +6472,12 @@
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6489,26 +6489,26 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>0.9588</v>
+        <v>2.142</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>426.97</v>
+        <v>451.58</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>425.26</v>
+        <v>973.2</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>15.88</v>
+        <v>5.92</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>0.996</v>
+        <v>2.1551</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.0305</v>
+        <v>2.1973</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0347</v>
+        <v>0.0196</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>14.73</v>
+        <v>19.06</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="N88" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O88" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P88" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q88" s="6" t="inlineStr">
@@ -6558,26 +6558,26 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>1594</v>
+        <v>968</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>1.2512</v>
+        <v>0.9588</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>220.69</v>
+        <v>426.97</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>254.57</v>
+        <v>425.26</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-21.56</v>
+        <v>15.88</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>1.1535</v>
+        <v>0.996</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1.161</v>
+        <v>1.0305</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0065</v>
+        <v>0.0347</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>1.66</v>
+        <v>14.73</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
@@ -6610,12 +6610,12 @@
       </c>
       <c r="O89" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P89" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q89" s="6" t="inlineStr">
@@ -6627,26 +6627,26 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2512</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>227.52</v>
+        <v>220.69</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>212.05</v>
+        <v>254.57</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-11.47</v>
+        <v>-21.56</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>1.1535</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
@@ -6654,13 +6654,13 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9472</v>
+        <v>1.161</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0163</v>
+        <v>0.0065</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>3.46</v>
+        <v>1.66</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
@@ -6674,17 +6674,17 @@
       </c>
       <c r="N90" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O90" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P90" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q90" s="6" t="inlineStr">
@@ -6696,26 +6696,26 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>501050</v>
+        <v>501029</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>1.284</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>142.1</v>
+        <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>182.88</v>
+        <v>212.05</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>0.43</v>
+        <v>-11.47</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>1.287</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>1.3106</v>
+        <v>0.9472</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0183</v>
+        <v>0.0163</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
@@ -6743,17 +6743,17 @@
       </c>
       <c r="N91" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O91" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P91" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q91" s="6" t="inlineStr">
@@ -6765,26 +6765,26 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>0.6708</v>
+        <v>1.284</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>212.74</v>
+        <v>142.1</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>189</v>
+        <v>182.88</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>46.29</v>
+        <v>0.43</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>0.8884</v>
+        <v>1.287</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>0.9206</v>
+        <v>1.3106</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0363</v>
+        <v>0.0183</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>6.85</v>
+        <v>3.35</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
@@ -6812,17 +6812,17 @@
       </c>
       <c r="N92" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O92" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P92" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q92" s="6" t="inlineStr">
@@ -6834,26 +6834,26 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>310398</v>
+        <v>1550</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>1.4372</v>
+        <v>0.6708</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>25.8</v>
+        <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>33.4</v>
+        <v>189</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>-3.68</v>
+        <v>46.29</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>1.2945</v>
+        <v>0.8884</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
@@ -6861,13 +6861,13 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>1.3082</v>
+        <v>0.9206</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0105</v>
+        <v>0.0363</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>0.35</v>
+        <v>6.85</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
@@ -6881,17 +6881,17 @@
       </c>
       <c r="N93" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O93" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P93" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q93" s="6" t="inlineStr">
@@ -6903,164 +6903,164 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>1.3082</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L94" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M94" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N94" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O94" s="6" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="P94" s="6" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="Q94" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉母</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B95" s="3" t="n">
         <v>2086</v>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C95" s="4" t="n">
         <v>1.2257</v>
       </c>
-      <c r="D94" s="5" t="n">
+      <c r="D95" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E94" s="5" t="n">
+      <c r="E95" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F94" s="5" t="n">
+      <c r="F95" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G94" s="4" t="n">
+      <c r="G95" s="4" t="n">
         <v>1.2631</v>
       </c>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I94" s="4" t="n">
+      <c r="H95" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="n">
         <v>1.2635</v>
       </c>
-      <c r="J94" s="7" t="n">
+      <c r="J95" s="7" t="n">
         <v>0.0003</v>
       </c>
-      <c r="K94" s="8" t="n">
+      <c r="K95" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L94" s="6" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M94" s="6" t="inlineStr">
+      <c r="L95" s="6" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M95" s="6" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N94" s="6" t="inlineStr">
+      <c r="N95" s="6" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O94" s="6" t="inlineStr">
+      <c r="O95" s="6" t="inlineStr">
         <is>
           <t>纯债</t>
         </is>
       </c>
-      <c r="P94" s="6" t="inlineStr">
+      <c r="P95" s="6" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q94" s="6" t="inlineStr">
+      <c r="Q95" s="6" t="inlineStr">
         <is>
           <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="22" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B95" s="23" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C95" s="24" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D95" s="25" t="n">
-        <v>78202.03</v>
-      </c>
-      <c r="E95" s="25" t="n">
-        <v>80344.77</v>
-      </c>
-      <c r="F95" s="25" t="n">
-        <v>-93.84</v>
-      </c>
-      <c r="G95" s="24" t="n">
-        <v>1.0274</v>
-      </c>
-      <c r="H95" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I95" s="24" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="J95" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="L95" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M95" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N95" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O95" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P95" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q95" s="26" t="inlineStr">
-        <is>
-          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>交银信用添利债券(LOF)</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B96" s="23" t="n">
-        <v>164902</v>
+        <v>6793</v>
       </c>
       <c r="C96" s="24" t="n">
-        <v>1.1469</v>
+        <v>1.0286</v>
       </c>
       <c r="D96" s="25" t="n">
-        <v>132767.68</v>
+        <v>78202.03</v>
       </c>
       <c r="E96" s="25" t="n">
-        <v>153346.67</v>
+        <v>80344.77</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>1075.42</v>
+        <v>-93.84</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>1.155</v>
+        <v>1.0274</v>
       </c>
       <c r="H96" s="26" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.1557</v>
+        <v>1.028</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>92.94</v>
+        <v>46.92</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
@@ -7110,26 +7110,26 @@
     <row r="97">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B97" s="23" t="n">
-        <v>519700</v>
+        <v>164902</v>
       </c>
       <c r="C97" s="24" t="n">
-        <v>1.4657</v>
+        <v>1.1469</v>
       </c>
       <c r="D97" s="25" t="n">
-        <v>11598.58</v>
+        <v>132767.68</v>
       </c>
       <c r="E97" s="25" t="n">
-        <v>18232.97</v>
+        <v>153346.67</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>1232.93</v>
+        <v>1075.42</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>1.572</v>
+        <v>1.155</v>
       </c>
       <c r="H97" s="26" t="inlineStr">
         <is>
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.6002</v>
+        <v>1.1557</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>0.018</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>327.08</v>
+        <v>92.94</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
@@ -7152,22 +7152,22 @@
       </c>
       <c r="M97" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N97" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O97" s="26" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P97" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q97" s="26" t="inlineStr">
@@ -7179,26 +7179,26 @@
     <row r="98">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B98" s="23" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C98" s="24" t="n">
-        <v>1.0644</v>
+        <v>1.4657</v>
       </c>
       <c r="D98" s="25" t="n">
-        <v>144612.8</v>
+        <v>11598.58</v>
       </c>
       <c r="E98" s="25" t="n">
-        <v>156326.44</v>
+        <v>18232.97</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>2400.57</v>
+        <v>1232.93</v>
       </c>
       <c r="G98" s="24" t="n">
-        <v>1.081</v>
+        <v>1.572</v>
       </c>
       <c r="H98" s="26" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="I98" s="24" t="n">
-        <v>1.0817</v>
+        <v>1.6002</v>
       </c>
       <c r="J98" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>101.23</v>
+        <v>327.08</v>
       </c>
       <c r="L98" s="26" t="inlineStr">
         <is>
@@ -7221,22 +7221,22 @@
       </c>
       <c r="M98" s="26" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N98" s="26" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O98" s="26" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="P98" s="26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q98" s="26" t="inlineStr">
@@ -7248,26 +7248,26 @@
     <row r="99">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B99" s="23" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C99" s="24" t="n">
-        <v>1.0674</v>
+        <v>1.0644</v>
       </c>
       <c r="D99" s="25" t="n">
-        <v>134080.44</v>
+        <v>144612.8</v>
       </c>
       <c r="E99" s="25" t="n">
-        <v>144404.63</v>
+        <v>156326.44</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>1287.17</v>
+        <v>2400.57</v>
       </c>
       <c r="G99" s="24" t="n">
-        <v>1.077</v>
+        <v>1.081</v>
       </c>
       <c r="H99" s="26" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="I99" s="24" t="n">
-        <v>1.0776</v>
+        <v>1.0817</v>
       </c>
       <c r="J99" s="27" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>80.45</v>
+        <v>101.23</v>
       </c>
       <c r="L99" s="26" t="inlineStr">
         <is>
@@ -7317,26 +7317,26 @@
     <row r="100">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B100" s="23" t="n">
-        <v>519738</v>
+        <v>519723</v>
       </c>
       <c r="C100" s="24" t="n">
-        <v>1.1791</v>
+        <v>1.0674</v>
       </c>
       <c r="D100" s="25" t="n">
-        <v>68092.81</v>
+        <v>134080.44</v>
       </c>
       <c r="E100" s="25" t="n">
-        <v>78647.2</v>
+        <v>144404.63</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>-1641.04</v>
+        <v>1287.17</v>
       </c>
       <c r="G100" s="24" t="n">
-        <v>1.155</v>
+        <v>1.077</v>
       </c>
       <c r="H100" s="26" t="inlineStr">
         <is>
@@ -7344,13 +7344,13 @@
         </is>
       </c>
       <c r="I100" s="24" t="n">
-        <v>1.1582</v>
+        <v>1.0776</v>
       </c>
       <c r="J100" s="27" t="n">
-        <v>0.0027</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>217.9</v>
+        <v>80.45</v>
       </c>
       <c r="L100" s="26" t="inlineStr">
         <is>
@@ -7359,22 +7359,22 @@
       </c>
       <c r="M100" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N100" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O100" s="26" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P100" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q100" s="26" t="inlineStr">
@@ -7386,26 +7386,26 @@
     <row r="101">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B101" s="23" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C101" s="24" t="n">
-        <v>1.2439</v>
+        <v>1.1791</v>
       </c>
       <c r="D101" s="25" t="n">
-        <v>59685.02</v>
+        <v>68092.81</v>
       </c>
       <c r="E101" s="25" t="n">
-        <v>75083.75999999999</v>
+        <v>78647.2</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>841.5599999999999</v>
+        <v>-1641.04</v>
       </c>
       <c r="G101" s="24" t="n">
-        <v>1.258</v>
+        <v>1.155</v>
       </c>
       <c r="H101" s="26" t="inlineStr">
         <is>
@@ -7413,13 +7413,13 @@
         </is>
       </c>
       <c r="I101" s="24" t="n">
-        <v>1.2609</v>
+        <v>1.1582</v>
       </c>
       <c r="J101" s="27" t="n">
-        <v>0.0023</v>
+        <v>0.0027</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>173.09</v>
+        <v>217.9</v>
       </c>
       <c r="L101" s="26" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="P101" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q101" s="26" t="inlineStr">
@@ -7455,164 +7455,164 @@
     <row r="102">
       <c r="A102" s="22" t="inlineStr">
         <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B102" s="23" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C102" s="24" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D102" s="25" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E102" s="25" t="n">
+        <v>75083.75999999999</v>
+      </c>
+      <c r="F102" s="25" t="n">
+        <v>841.5599999999999</v>
+      </c>
+      <c r="G102" s="24" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="H102" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I102" s="24" t="n">
+        <v>1.2609</v>
+      </c>
+      <c r="J102" s="27" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>173.09</v>
+      </c>
+      <c r="L102" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M102" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N102" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O102" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P102" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q102" s="26" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="22" t="inlineStr">
+        <is>
           <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B102" s="23" t="n">
+      <c r="B103" s="23" t="n">
         <v>519755</v>
       </c>
-      <c r="C102" s="24" t="n">
+      <c r="C103" s="24" t="n">
         <v>1.2894</v>
       </c>
-      <c r="D102" s="25" t="n">
+      <c r="D103" s="25" t="n">
         <v>76964.17</v>
       </c>
-      <c r="E102" s="25" t="n">
+      <c r="E103" s="25" t="n">
         <v>100669.13</v>
       </c>
-      <c r="F102" s="25" t="n">
+      <c r="F103" s="25" t="n">
         <v>1431.53</v>
       </c>
-      <c r="G102" s="24" t="n">
+      <c r="G103" s="24" t="n">
         <v>1.308</v>
       </c>
-      <c r="H102" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I102" s="24" t="n">
+      <c r="H103" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I103" s="24" t="n">
         <v>1.3113</v>
       </c>
-      <c r="J102" s="27" t="n">
+      <c r="J103" s="27" t="n">
         <v>0.0025</v>
       </c>
-      <c r="K102" s="8" t="n">
+      <c r="K103" s="8" t="n">
         <v>253.98</v>
       </c>
-      <c r="L102" s="26" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M102" s="26" t="inlineStr">
+      <c r="L103" s="26" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M103" s="26" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="N102" s="26" t="inlineStr">
+      <c r="N103" s="26" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="O102" s="26" t="inlineStr">
+      <c r="O103" s="26" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="P102" s="26" t="inlineStr">
+      <c r="P103" s="26" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="Q102" s="26" t="inlineStr">
+      <c r="Q103" s="26" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="28" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B103" s="29" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C103" s="30" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D103" s="31" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E103" s="31" t="n">
-        <v>10849.64</v>
-      </c>
-      <c r="F103" s="31" t="n">
-        <v>648.77</v>
-      </c>
-      <c r="G103" s="30" t="n">
-        <v>1.1188</v>
-      </c>
-      <c r="H103" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I103" s="30" t="n">
-        <v>1.1517</v>
-      </c>
-      <c r="J103" s="33" t="n">
-        <v>0.0295</v>
-      </c>
-      <c r="K103" s="8" t="n">
-        <v>319.05</v>
-      </c>
-      <c r="L103" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-06 15:00</t>
-        </is>
-      </c>
-      <c r="M103" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N103" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O103" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P103" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q103" s="32" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="28" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B104" s="29" t="n">
-        <v>100032</v>
+        <v>162711</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>1.0142</v>
+        <v>1.0519</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>8677.6</v>
+        <v>9697.57</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>9259</v>
+        <v>10849.64</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>458.18</v>
+        <v>648.77</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.067</v>
+        <v>1.1188</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
@@ -7620,13 +7620,13 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.0797</v>
+        <v>1.1517</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0119</v>
+        <v>0.0295</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>110.21</v>
+        <v>319.05</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
@@ -7640,17 +7640,17 @@
       </c>
       <c r="N104" s="32" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O104" s="32" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P104" s="32" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q104" s="32" t="inlineStr">
@@ -7662,26 +7662,26 @@
     <row r="105">
       <c r="A105" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B105" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>0.853</v>
+        <v>1.0142</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>6096.21</v>
+        <v>8677.6</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>6071.83</v>
+        <v>9259</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>871.76</v>
+        <v>458.18</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.996</v>
+        <v>1.067</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.0305</v>
+        <v>1.0797</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0347</v>
+        <v>0.0119</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>210.32</v>
+        <v>110.21</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
@@ -7709,17 +7709,17 @@
       </c>
       <c r="N105" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O105" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P105" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q105" s="32" t="inlineStr">
@@ -7731,26 +7731,26 @@
     <row r="106">
       <c r="A106" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B106" s="29" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>6295.99</v>
+        <v>6071.83</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>1495.86</v>
+        <v>871.76</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.9327</v>
+        <v>0.996</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
@@ -7758,13 +7758,13 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9634</v>
+        <v>1.0305</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.033</v>
+        <v>0.0347</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>207.23</v>
+        <v>210.32</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
@@ -7783,12 +7783,12 @@
       </c>
       <c r="O106" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P106" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q106" s="32" t="inlineStr">
@@ -7800,26 +7800,26 @@
     <row r="107">
       <c r="A107" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B107" s="29" t="n">
-        <v>100038</v>
+        <v>1180</v>
       </c>
       <c r="C107" s="30" t="n">
-        <v>1.3043</v>
+        <v>0.7111</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>2760.12</v>
+        <v>6750.28</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>4405.15</v>
+        <v>6295.99</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>805.13</v>
+        <v>1495.86</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.596</v>
+        <v>0.9327</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.6242</v>
+        <v>0.9634</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0177</v>
+        <v>0.033</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>77.84</v>
+        <v>207.23</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
@@ -7847,17 +7847,17 @@
       </c>
       <c r="N107" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O107" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P107" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q107" s="32" t="inlineStr">
@@ -7869,26 +7869,26 @@
     <row r="108">
       <c r="A108" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B108" s="29" t="n">
-        <v>4752</v>
+        <v>100038</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>0.7235</v>
+        <v>1.3043</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>4423.48</v>
+        <v>2760.12</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>3748.01</v>
+        <v>4405.15</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>547.63</v>
+        <v>805.13</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.596</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
@@ -7896,13 +7896,13 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>0.8942</v>
+        <v>1.6242</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0554</v>
+        <v>0.0177</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>207.46</v>
+        <v>77.84</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
@@ -7916,17 +7916,17 @@
       </c>
       <c r="N108" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O108" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P108" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q108" s="32" t="inlineStr">
@@ -7938,26 +7938,26 @@
     <row r="109">
       <c r="A109" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B109" s="29" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>3490.73</v>
+        <v>3748.01</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>290.35</v>
+        <v>547.63</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.5867</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.6</v>
+        <v>0.8942</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0227</v>
+        <v>0.0554</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>79.13</v>
+        <v>207.46</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
@@ -7990,12 +7990,12 @@
       </c>
       <c r="O109" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P109" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q109" s="32" t="inlineStr">
@@ -8007,26 +8007,26 @@
     <row r="110">
       <c r="A110" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B110" s="29" t="n">
-        <v>161017</v>
+        <v>1064</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>1.325</v>
+        <v>0.5379</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>2046.97</v>
+        <v>5949.77</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>3443</v>
+        <v>3490.73</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>730.77</v>
+        <v>290.35</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.682</v>
+        <v>0.5867</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.7315</v>
+        <v>0.6</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0295</v>
+        <v>0.0227</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>101.33</v>
+        <v>79.13</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
@@ -8054,17 +8054,17 @@
       </c>
       <c r="N110" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O110" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P110" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q110" s="32" t="inlineStr">
@@ -8076,26 +8076,26 @@
     <row r="111">
       <c r="A111" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B111" s="29" t="n">
-        <v>110027</v>
+        <v>161017</v>
       </c>
       <c r="C111" s="30" t="n">
-        <v>1.6102</v>
+        <v>1.325</v>
       </c>
       <c r="D111" s="31" t="n">
-        <v>1981.84</v>
+        <v>2046.97</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>3493.98</v>
+        <v>3443</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>302.83</v>
+        <v>730.77</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.763</v>
+        <v>1.682</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
@@ -8103,13 +8103,13 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.7753</v>
+        <v>1.7315</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.007</v>
+        <v>0.0295</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>24.38</v>
+        <v>101.33</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
@@ -8118,22 +8118,22 @@
       </c>
       <c r="M111" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N111" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O111" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P111" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q111" s="32" t="inlineStr">
@@ -8145,26 +8145,26 @@
     <row r="112">
       <c r="A112" s="28" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B112" s="29" t="n">
-        <v>110026</v>
+        <v>110027</v>
       </c>
       <c r="C112" s="30" t="n">
-        <v>1.319</v>
+        <v>1.6102</v>
       </c>
       <c r="D112" s="31" t="n">
-        <v>1213.09</v>
+        <v>1981.84</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>2409.56</v>
+        <v>3493.98</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>809.49</v>
+        <v>302.83</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.9863</v>
+        <v>1.763</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>2.0569</v>
+        <v>1.7753</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0355</v>
+        <v>0.007</v>
       </c>
       <c r="K112" s="8" t="n">
-        <v>85.64</v>
+        <v>24.38</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
@@ -8187,22 +8187,22 @@
       </c>
       <c r="M112" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N112" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O112" s="32" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P112" s="32" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q112" s="32" t="inlineStr">
@@ -8214,64 +8214,64 @@
     <row r="113">
       <c r="A113" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B113" s="29" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C113" s="30" t="n">
-        <v>1.0612</v>
+        <v>1.319</v>
       </c>
       <c r="D113" s="31" t="n">
-        <v>1884.74</v>
+        <v>1213.09</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>2263.57</v>
+        <v>2409.56</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>263.49</v>
+        <v>809.49</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>1.201</v>
+        <v>1.9863</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0</v>
+        <v>2.0569</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>0</v>
+        <v>85.64</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N113" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O113" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P113" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q113" s="32" t="inlineStr">
@@ -8283,26 +8283,26 @@
     <row r="114">
       <c r="A114" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B114" s="29" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C114" s="30" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D114" s="31" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>2013.83</v>
+        <v>2263.57</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>413.74</v>
+        <v>263.49</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.431</v>
+        <v>1.201</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
@@ -8310,37 +8310,37 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.4481</v>
+        <v>0</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>24.06</v>
+        <v>0</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 05:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N114" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O114" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P114" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q114" s="32" t="inlineStr">
@@ -8352,64 +8352,64 @@
     <row r="115">
       <c r="A115" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B115" s="29" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C115" s="30" t="n">
-        <v>0.9816</v>
+        <v>1.137</v>
       </c>
       <c r="D115" s="31" t="n">
-        <v>1630.08</v>
+        <v>1407.29</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>1959.85</v>
+        <v>2013.83</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>359.76</v>
+        <v>413.74</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.2023</v>
+        <v>1.431</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2116</v>
+        <v>1.4481</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0077</v>
+        <v>0.0119</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>15.16</v>
+        <v>24.06</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 05:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N115" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O115" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P115" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q115" s="32" t="inlineStr">
@@ -8421,26 +8421,26 @@
     <row r="116">
       <c r="A116" s="28" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B116" s="29" t="n">
-        <v>1051</v>
+        <v>340001</v>
       </c>
       <c r="C116" s="30" t="n">
-        <v>0.8966</v>
+        <v>0.9816</v>
       </c>
       <c r="D116" s="31" t="n">
-        <v>1338.46</v>
+        <v>1630.08</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>1290.28</v>
+        <v>1959.85</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>90.20999999999999</v>
+        <v>359.76</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>0.964</v>
+        <v>1.2023</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
@@ -8448,13 +8448,13 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>0.9776</v>
+        <v>1.2116</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0142</v>
+        <v>0.0077</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>18.2</v>
+        <v>15.16</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
@@ -8463,22 +8463,22 @@
       </c>
       <c r="M116" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N116" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O116" s="32" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P116" s="32" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q116" s="32" t="inlineStr">
@@ -8490,26 +8490,26 @@
     <row r="117">
       <c r="A117" s="28" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B117" s="29" t="n">
-        <v>162413</v>
+        <v>1051</v>
       </c>
       <c r="C117" s="30" t="n">
-        <v>0.776</v>
+        <v>0.8966</v>
       </c>
       <c r="D117" s="31" t="n">
-        <v>1546.42</v>
+        <v>1338.46</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>1228.01</v>
+        <v>1290.28</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>27.99</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>0.7941</v>
+        <v>0.964</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
@@ -8517,13 +8517,13 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>0.8177</v>
+        <v>0.9776</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0297</v>
+        <v>0.0142</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>36.5</v>
+        <v>18.2</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
@@ -8537,17 +8537,17 @@
       </c>
       <c r="N117" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O117" s="32" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P117" s="32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q117" s="32" t="inlineStr">
@@ -8559,64 +8559,64 @@
     <row r="118">
       <c r="A118" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B118" s="29" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C118" s="30" t="n">
-        <v>0.4776</v>
+        <v>0.776</v>
       </c>
       <c r="D118" s="31" t="n">
-        <v>3350.7</v>
+        <v>1546.42</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>1212.95</v>
+        <v>1228.01</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>-387.34</v>
+        <v>27.99</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.362</v>
+        <v>0.7941</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.372</v>
+        <v>0.8177</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0276</v>
+        <v>0.0297</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>33.51</v>
+        <v>36.5</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:04</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N118" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O118" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="P118" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>123</t>
         </is>
       </c>
       <c r="Q118" s="32" t="inlineStr">
@@ -8628,64 +8628,64 @@
     <row r="119">
       <c r="A119" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B119" s="29" t="n">
-        <v>1469</v>
+        <v>162411</v>
       </c>
       <c r="C119" s="30" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.4776</v>
       </c>
       <c r="D119" s="31" t="n">
-        <v>900.35</v>
+        <v>3350.7</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>928.4400000000001</v>
+        <v>1212.95</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>128.39</v>
+        <v>-387.34</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.0312</v>
+        <v>0.362</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.0442</v>
+        <v>0.372</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0126</v>
+        <v>0.0276</v>
       </c>
       <c r="K119" s="8" t="n">
-        <v>11.7</v>
+        <v>33.51</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 15:04</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N119" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O119" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P119" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q119" s="32" t="inlineStr">
@@ -8697,26 +8697,26 @@
     <row r="120">
       <c r="A120" s="28" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B120" s="29" t="n">
-        <v>216</v>
+        <v>1469</v>
       </c>
       <c r="C120" s="30" t="n">
-        <v>1.0903</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D120" s="31" t="n">
-        <v>733.79</v>
+        <v>900.35</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>943.4299999999999</v>
+        <v>928.4400000000001</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>143.38</v>
+        <v>128.39</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>1.2857</v>
+        <v>1.0312</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
@@ -8724,37 +8724,37 @@
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>1.2773</v>
+        <v>1.0442</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0066</v>
-      </c>
-      <c r="K120" s="21" t="n">
-        <v>-6.16</v>
+        <v>0.0126</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>11.7</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:30</t>
+          <t>2020-02-06 15:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N120" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O120" s="32" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P120" s="32" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q120" s="32" t="inlineStr">
@@ -8766,26 +8766,26 @@
     <row r="121">
       <c r="A121" s="28" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B121" s="29" t="n">
-        <v>502010</v>
+        <v>216</v>
       </c>
       <c r="C121" s="30" t="n">
-        <v>0.8063</v>
+        <v>1.0903</v>
       </c>
       <c r="D121" s="31" t="n">
-        <v>496.13</v>
+        <v>733.79</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>485.51</v>
+        <v>943.4299999999999</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>85.48</v>
+        <v>143.38</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>0.9786</v>
+        <v>1.2857</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
@@ -8793,37 +8793,37 @@
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>1.004</v>
+        <v>1.2773</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0259</v>
-      </c>
-      <c r="K121" s="8" t="n">
-        <v>12.6</v>
+        <v>-0.0066</v>
+      </c>
+      <c r="K121" s="21" t="n">
+        <v>-6.16</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2020-02-06 15:00</t>
+          <t>2020-02-06 15:30</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N121" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O121" s="32" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P121" s="32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q121" s="32" t="inlineStr">
@@ -8835,26 +8835,26 @@
     <row r="122">
       <c r="A122" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B122" s="29" t="n">
-        <v>519977</v>
+        <v>502010</v>
       </c>
       <c r="C122" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.8063</v>
       </c>
       <c r="D122" s="31" t="n">
-        <v>333.04</v>
+        <v>496.13</v>
       </c>
       <c r="E122" s="31" t="n">
-        <v>473.72</v>
+        <v>485.51</v>
       </c>
       <c r="F122" s="31" t="n">
-        <v>73.7</v>
+        <v>85.48</v>
       </c>
       <c r="G122" s="30" t="n">
-        <v>1.4224</v>
+        <v>0.9786</v>
       </c>
       <c r="H122" s="32" t="inlineStr">
         <is>
@@ -8862,13 +8862,13 @@
         </is>
       </c>
       <c r="I122" s="30" t="n">
-        <v>1.4344</v>
+        <v>1.004</v>
       </c>
       <c r="J122" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0259</v>
       </c>
       <c r="K122" s="8" t="n">
-        <v>4</v>
+        <v>12.6</v>
       </c>
       <c r="L122" s="32" t="inlineStr">
         <is>
@@ -8877,22 +8877,22 @@
       </c>
       <c r="M122" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N122" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O122" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P122" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q122" s="32" t="inlineStr">
@@ -8904,26 +8904,26 @@
     <row r="123">
       <c r="A123" s="28" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B123" s="29" t="n">
-        <v>51</v>
+        <v>519977</v>
       </c>
       <c r="C123" s="30" t="n">
-        <v>1.2285</v>
+        <v>1.2011</v>
       </c>
       <c r="D123" s="31" t="n">
-        <v>325.61</v>
+        <v>333.04</v>
       </c>
       <c r="E123" s="31" t="n">
-        <v>418.08</v>
+        <v>473.72</v>
       </c>
       <c r="F123" s="31" t="n">
-        <v>18.07</v>
+        <v>73.7</v>
       </c>
       <c r="G123" s="30" t="n">
-        <v>1.284</v>
+        <v>1.4224</v>
       </c>
       <c r="H123" s="32" t="inlineStr">
         <is>
@@ -8931,13 +8931,13 @@
         </is>
       </c>
       <c r="I123" s="30" t="n">
-        <v>1.3067</v>
+        <v>1.4344</v>
       </c>
       <c r="J123" s="33" t="n">
-        <v>0.0177</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K123" s="8" t="n">
-        <v>7.39</v>
+        <v>4</v>
       </c>
       <c r="L123" s="32" t="inlineStr">
         <is>
@@ -8946,22 +8946,22 @@
       </c>
       <c r="M123" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N123" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O123" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P123" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q123" s="32" t="inlineStr">
@@ -8973,26 +8973,26 @@
     <row r="124">
       <c r="A124" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B124" s="29" t="n">
-        <v>478</v>
+        <v>51</v>
       </c>
       <c r="C124" s="30" t="n">
-        <v>1.9396</v>
+        <v>1.2285</v>
       </c>
       <c r="D124" s="31" t="n">
-        <v>206.23</v>
+        <v>325.61</v>
       </c>
       <c r="E124" s="31" t="n">
-        <v>405.24</v>
+        <v>418.08</v>
       </c>
       <c r="F124" s="31" t="n">
-        <v>5.24</v>
+        <v>18.07</v>
       </c>
       <c r="G124" s="30" t="n">
-        <v>1.965</v>
+        <v>1.284</v>
       </c>
       <c r="H124" s="32" t="inlineStr">
         <is>
@@ -9000,13 +9000,13 @@
         </is>
       </c>
       <c r="I124" s="30" t="n">
-        <v>2.0229</v>
+        <v>1.3067</v>
       </c>
       <c r="J124" s="33" t="n">
-        <v>0.0295</v>
+        <v>0.0177</v>
       </c>
       <c r="K124" s="8" t="n">
-        <v>11.94</v>
+        <v>7.39</v>
       </c>
       <c r="L124" s="32" t="inlineStr">
         <is>
@@ -9020,17 +9020,17 @@
       </c>
       <c r="N124" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O124" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P124" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q124" s="32" t="inlineStr">
@@ -9042,67 +9042,136 @@
     <row r="125">
       <c r="A125" s="28" t="inlineStr">
         <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B125" s="29" t="n">
+        <v>478</v>
+      </c>
+      <c r="C125" s="30" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D125" s="31" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E125" s="31" t="n">
+        <v>405.24</v>
+      </c>
+      <c r="F125" s="31" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G125" s="30" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="H125" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I125" s="30" t="n">
+        <v>2.0229</v>
+      </c>
+      <c r="J125" s="33" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="L125" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-06 15:00</t>
+        </is>
+      </c>
+      <c r="M125" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N125" s="32" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O125" s="32" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P125" s="32" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q125" s="32" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="28" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B125" s="29" t="n">
+      <c r="B126" s="29" t="n">
         <v>71</v>
       </c>
-      <c r="C125" s="30" t="n">
+      <c r="C126" s="30" t="n">
         <v>1.452</v>
       </c>
-      <c r="D125" s="31" t="n">
+      <c r="D126" s="31" t="n">
         <v>275.49</v>
       </c>
-      <c r="E125" s="31" t="n">
+      <c r="E126" s="31" t="n">
         <v>413.18</v>
       </c>
-      <c r="F125" s="31" t="n">
+      <c r="F126" s="31" t="n">
         <v>13.17</v>
       </c>
-      <c r="G125" s="30" t="n">
+      <c r="G126" s="30" t="n">
         <v>1.4998</v>
       </c>
-      <c r="H125" s="32" t="inlineStr">
-        <is>
-          <t>2020-02-05</t>
-        </is>
-      </c>
-      <c r="I125" s="30" t="n">
+      <c r="H126" s="32" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="I126" s="30" t="n">
         <v>1.5374</v>
       </c>
-      <c r="J125" s="33" t="n">
+      <c r="J126" s="33" t="n">
         <v>0.0251</v>
       </c>
-      <c r="K125" s="8" t="n">
+      <c r="K126" s="8" t="n">
         <v>10.36</v>
       </c>
-      <c r="L125" s="32" t="inlineStr">
+      <c r="L126" s="32" t="inlineStr">
         <is>
           <t>2020-02-06 16:00</t>
         </is>
       </c>
-      <c r="M125" s="32" t="inlineStr">
+      <c r="M126" s="32" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="N125" s="32" t="inlineStr">
+      <c r="N126" s="32" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="O125" s="32" t="inlineStr">
+      <c r="O126" s="32" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="P125" s="32" t="inlineStr">
+      <c r="P126" s="32" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="Q125" s="32" t="inlineStr">
+      <c r="Q126" s="32" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
